--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_20_25.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_20_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6083.696451940452</v>
+        <v>5404.279350109529</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5588220.064038451</v>
+        <v>5588220.064038454</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736551</v>
+        <v>504792.029273655</v>
       </c>
     </row>
     <row r="9">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>218.7134039554107</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>206.7247209130925</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>197.7060249576205</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>219.4481625275261</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>238.6199786155032</v>
       </c>
       <c r="G11" t="n">
-        <v>166.1609526251439</v>
+        <v>149.8637840908707</v>
       </c>
       <c r="H11" t="n">
-        <v>151.8262626552654</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,19 +1421,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>48.04258570959359</v>
+        <v>48.04258570959368</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>80.89774890663901</v>
       </c>
       <c r="V11" t="n">
-        <v>162.2197811955898</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>187.5198806735467</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>206.8201389062934</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1446,16 +1446,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>160.0866360314548</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1464,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>95.77124205704072</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1500,13 +1500,13 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>98.3339446427603</v>
+        <v>14.08671310092215</v>
       </c>
       <c r="U12" t="n">
-        <v>44.89856912753537</v>
+        <v>44.89856912753546</v>
       </c>
       <c r="V12" t="n">
-        <v>54.72196615872113</v>
+        <v>89.40492368100954</v>
       </c>
       <c r="W12" t="n">
         <v>238.9027100790231</v>
@@ -1515,7 +1515,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y12" t="n">
-        <v>190.5961130869169</v>
+        <v>19.2064129194888</v>
       </c>
     </row>
     <row r="13">
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>181.719814997536</v>
+        <v>10.33011483010787</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>75.38995289273585</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>155.3344859367049</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>35.39157652215683</v>
+        <v>35.39157652215692</v>
       </c>
       <c r="T13" t="n">
-        <v>58.28273605053787</v>
+        <v>58.28273605053796</v>
       </c>
       <c r="U13" t="n">
-        <v>112.9136404279223</v>
+        <v>112.9136404279224</v>
       </c>
       <c r="V13" t="n">
-        <v>86.73825122973338</v>
+        <v>86.73825122973346</v>
       </c>
       <c r="W13" t="n">
-        <v>111.9051373003466</v>
+        <v>111.9051373003467</v>
       </c>
       <c r="X13" t="n">
-        <v>116.8849779581633</v>
+        <v>57.55023929614984</v>
       </c>
       <c r="Y13" t="n">
-        <v>48.42510705221744</v>
+        <v>48.42510705221753</v>
       </c>
     </row>
     <row r="14">
@@ -1607,22 +1607,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>206.7247209130925</v>
       </c>
       <c r="D14" t="n">
         <v>197.7060249576204</v>
       </c>
       <c r="E14" t="n">
-        <v>53.8501399904007</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>238.6199786155031</v>
       </c>
       <c r="G14" t="n">
         <v>239.9403233994414</v>
       </c>
       <c r="H14" t="n">
-        <v>151.8262626552655</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1661,10 +1661,10 @@
         <v>48.0425857095936</v>
       </c>
       <c r="U14" t="n">
-        <v>80.89774890663892</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>162.2197811955898</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>206.8201389062934</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>3.449233219299094</v>
       </c>
     </row>
     <row r="15">
@@ -1683,19 +1683,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D15" t="n">
-        <v>59.37971559188487</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1740,16 +1740,16 @@
         <v>14.08671310092206</v>
       </c>
       <c r="U15" t="n">
-        <v>216.2882692949636</v>
+        <v>44.89856912753537</v>
       </c>
       <c r="V15" t="n">
-        <v>226.1116663261494</v>
+        <v>54.72196615872113</v>
       </c>
       <c r="W15" t="n">
-        <v>238.9027100790231</v>
+        <v>67.51300991159482</v>
       </c>
       <c r="X15" t="n">
-        <v>195.9378182409833</v>
+        <v>35.21990939723803</v>
       </c>
       <c r="Y15" t="n">
         <v>190.5961130869169</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10.33011483010779</v>
+        <v>90.09870523506839</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1822,10 +1822,10 @@
         <v>112.9136404279223</v>
       </c>
       <c r="V16" t="n">
-        <v>258.1279513971616</v>
+        <v>86.73825122973338</v>
       </c>
       <c r="W16" t="n">
-        <v>171.2398759623596</v>
+        <v>111.9051373003466</v>
       </c>
       <c r="X16" t="n">
         <v>57.55023929614975</v>
@@ -1841,16 +1841,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>118.1268213389618</v>
+        <v>118.1268213389617</v>
       </c>
       <c r="C17" t="n">
         <v>106.1381382966435</v>
       </c>
       <c r="D17" t="n">
-        <v>97.11944234117152</v>
+        <v>97.11944234117146</v>
       </c>
       <c r="E17" t="n">
-        <v>118.8615799110771</v>
+        <v>118.861579911077</v>
       </c>
       <c r="F17" t="n">
         <v>138.0333959990542</v>
@@ -1859,7 +1859,7 @@
         <v>139.3537407829925</v>
       </c>
       <c r="H17" t="n">
-        <v>51.23968003881657</v>
+        <v>51.23968003881649</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>61.63319857914092</v>
+        <v>61.63319857914087</v>
       </c>
       <c r="W17" t="n">
-        <v>86.93329805709783</v>
+        <v>86.93329805709777</v>
       </c>
       <c r="X17" t="n">
         <v>106.2335562898444</v>
       </c>
       <c r="Y17" t="n">
-        <v>117.6301540860432</v>
+        <v>117.6301540860431</v>
       </c>
     </row>
     <row r="18">
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>38.8252071204612</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1983,10 +1983,10 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>20.50234945502809</v>
       </c>
       <c r="X18" t="n">
-        <v>177.6149605755503</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y18" t="n">
         <v>190.5961130869169</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C19" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E19" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.9556149377512</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2044,10 +2044,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.12980963648924</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>77.1656221052903</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2056,19 +2056,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>12.3270578114734</v>
+        <v>12.32705781147334</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>11.31855468389773</v>
+        <v>18.93857742650686</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="20">
@@ -2081,22 +2081,22 @@
         <v>118.1268213389617</v>
       </c>
       <c r="C20" t="n">
-        <v>106.1381382966434</v>
+        <v>106.1381382966435</v>
       </c>
       <c r="D20" t="n">
-        <v>97.11944234117141</v>
+        <v>97.11944234117146</v>
       </c>
       <c r="E20" t="n">
-        <v>118.8615799110769</v>
+        <v>118.861579911077</v>
       </c>
       <c r="F20" t="n">
-        <v>138.0333959990541</v>
+        <v>138.0333959990542</v>
       </c>
       <c r="G20" t="n">
-        <v>139.3537407829924</v>
+        <v>139.3537407829925</v>
       </c>
       <c r="H20" t="n">
-        <v>51.23968003881646</v>
+        <v>51.23968003881652</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,13 +2138,13 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>61.63319857914081</v>
+        <v>61.63319857914087</v>
       </c>
       <c r="W20" t="n">
-        <v>86.93329805709772</v>
+        <v>86.93329805709777</v>
       </c>
       <c r="X20" t="n">
-        <v>106.2335562898443</v>
+        <v>106.2335562898444</v>
       </c>
       <c r="Y20" t="n">
         <v>117.6301540860431</v>
@@ -2172,13 +2172,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>20.50234945502807</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>20.50234945502807</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>15.45885191713283</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2281,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.12980963648924</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2293,16 +2293,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>195.7086430371877</v>
+        <v>12.32705781147334</v>
       </c>
       <c r="V22" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>283.2948374677749</v>
+        <v>11.31855468389767</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2318,22 +2318,22 @@
         <v>118.1268213389617</v>
       </c>
       <c r="C23" t="n">
-        <v>106.1381382966434</v>
+        <v>106.1381382966435</v>
       </c>
       <c r="D23" t="n">
-        <v>97.11944234117141</v>
+        <v>97.11944234117146</v>
       </c>
       <c r="E23" t="n">
-        <v>118.8615799110769</v>
+        <v>118.861579911077</v>
       </c>
       <c r="F23" t="n">
-        <v>138.0333959990541</v>
+        <v>138.0333959990542</v>
       </c>
       <c r="G23" t="n">
-        <v>139.3537407829924</v>
+        <v>139.3537407829925</v>
       </c>
       <c r="H23" t="n">
-        <v>51.23968003881646</v>
+        <v>51.23968003881649</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,13 +2375,13 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>61.63319857914081</v>
+        <v>61.63319857914087</v>
       </c>
       <c r="W23" t="n">
-        <v>86.93329805709772</v>
+        <v>86.93329805709777</v>
       </c>
       <c r="X23" t="n">
-        <v>106.2335562898443</v>
+        <v>106.2335562898444</v>
       </c>
       <c r="Y23" t="n">
         <v>117.6301540860431</v>
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>73.46642869280697</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2442,13 +2442,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>38.8252071204612</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>34.64122157234533</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>216.2882692949636</v>
@@ -2476,16 +2476,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E25" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>134.4929323504437</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2518,25 +2518,25 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>15.12980963648925</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>206.7812766895851</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>229.6724362179661</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>19.50711750042659</v>
+        <v>12.32705781147334</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>11.31855468389762</v>
+        <v>103.8986174864244</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>222.2211381824477</v>
       </c>
       <c r="I26" t="n">
-        <v>46.46448383044614</v>
+        <v>46.46448383044613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.39487552718226</v>
+        <v>70.39487552718225</v>
       </c>
       <c r="T26" t="n">
         <v>118.4374612367758</v>
@@ -2621,7 +2621,7 @@
         <v>277.2150144334756</v>
       </c>
       <c r="Y26" t="n">
-        <v>288.6116122296744</v>
+        <v>288.6116122296743</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>80.72499035729004</v>
+        <v>80.72499035729003</v>
       </c>
       <c r="C28" t="n">
-        <v>66.92498520269052</v>
+        <v>66.92498520269051</v>
       </c>
       <c r="D28" t="n">
-        <v>50.54634960026891</v>
+        <v>50.5463496002689</v>
       </c>
       <c r="E28" t="n">
-        <v>49.49409945604836</v>
+        <v>49.49409945604835</v>
       </c>
       <c r="F28" t="n">
-        <v>49.96102378423467</v>
+        <v>49.96102378423465</v>
       </c>
       <c r="G28" t="n">
-        <v>65.96079029750527</v>
+        <v>65.96079029750526</v>
       </c>
       <c r="H28" t="n">
-        <v>54.33966129645893</v>
+        <v>54.33966129645891</v>
       </c>
       <c r="I28" t="n">
-        <v>33.49810771019767</v>
+        <v>33.49810771019766</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.66960724833756</v>
+        <v>34.66960724833754</v>
       </c>
       <c r="S28" t="n">
         <v>105.7864520493391</v>
@@ -2810,7 +2810,7 @@
         <v>222.2211381824477</v>
       </c>
       <c r="I29" t="n">
-        <v>46.46448383044613</v>
+        <v>46.46448383044611</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.39487552718224</v>
+        <v>70.39487552718222</v>
       </c>
       <c r="T29" t="n">
         <v>118.4374612367758</v>
       </c>
       <c r="U29" t="n">
-        <v>151.2926244338212</v>
+        <v>151.2926244338211</v>
       </c>
       <c r="V29" t="n">
         <v>232.6146567227721</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>80.72499035729003</v>
+        <v>80.72499035729001</v>
       </c>
       <c r="C31" t="n">
-        <v>66.92498520269051</v>
+        <v>66.92498520269049</v>
       </c>
       <c r="D31" t="n">
-        <v>50.5463496002689</v>
+        <v>50.54634960026888</v>
       </c>
       <c r="E31" t="n">
-        <v>49.49409945604835</v>
+        <v>49.49409945604833</v>
       </c>
       <c r="F31" t="n">
-        <v>49.96102378423465</v>
+        <v>49.96102378423464</v>
       </c>
       <c r="G31" t="n">
-        <v>65.96079029750526</v>
+        <v>65.96079029750524</v>
       </c>
       <c r="H31" t="n">
-        <v>54.33966129645891</v>
+        <v>54.3396612964589</v>
       </c>
       <c r="I31" t="n">
-        <v>33.49810771019766</v>
+        <v>33.49810771019764</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.66960724833754</v>
+        <v>34.66960724833753</v>
       </c>
       <c r="S31" t="n">
         <v>105.7864520493391</v>
@@ -3026,13 +3026,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>289.108279482593</v>
+        <v>289.1082794825929</v>
       </c>
       <c r="C32" t="n">
-        <v>277.1195964402748</v>
+        <v>277.1195964402747</v>
       </c>
       <c r="D32" t="n">
-        <v>268.1009004848028</v>
+        <v>268.1009004848027</v>
       </c>
       <c r="E32" t="n">
         <v>289.8430380547082</v>
@@ -3041,13 +3041,13 @@
         <v>309.0148541426854</v>
       </c>
       <c r="G32" t="n">
-        <v>310.3351989266238</v>
+        <v>310.3351989266237</v>
       </c>
       <c r="H32" t="n">
-        <v>222.2211381824478</v>
+        <v>222.2211381824477</v>
       </c>
       <c r="I32" t="n">
-        <v>46.4644838304462</v>
+        <v>46.4644838304461</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>70.39487552718231</v>
+        <v>70.39487552718222</v>
       </c>
       <c r="T32" t="n">
-        <v>118.4374612367759</v>
+        <v>118.4374612367758</v>
       </c>
       <c r="U32" t="n">
-        <v>151.2926244338212</v>
+        <v>151.2926244338211</v>
       </c>
       <c r="V32" t="n">
         <v>232.6146567227721</v>
@@ -3095,7 +3095,7 @@
         <v>277.2150144334756</v>
       </c>
       <c r="Y32" t="n">
-        <v>288.6116122296744</v>
+        <v>288.6116122296743</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>80.7249903572901</v>
+        <v>80.72499035729001</v>
       </c>
       <c r="C34" t="n">
-        <v>66.92498520269058</v>
+        <v>66.92498520269049</v>
       </c>
       <c r="D34" t="n">
-        <v>50.54634960026897</v>
+        <v>50.54634960026888</v>
       </c>
       <c r="E34" t="n">
-        <v>49.49409945604842</v>
+        <v>49.49409945604833</v>
       </c>
       <c r="F34" t="n">
-        <v>49.96102378423473</v>
+        <v>49.96102378423464</v>
       </c>
       <c r="G34" t="n">
-        <v>65.96079029750533</v>
+        <v>65.96079029750524</v>
       </c>
       <c r="H34" t="n">
-        <v>54.33966129645898</v>
+        <v>54.3396612964589</v>
       </c>
       <c r="I34" t="n">
-        <v>33.49810771019773</v>
+        <v>33.49810771019764</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,25 +3232,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>34.66960724833761</v>
+        <v>34.66960724833751</v>
       </c>
       <c r="S34" t="n">
         <v>105.7864520493391</v>
       </c>
       <c r="T34" t="n">
-        <v>128.6776115777202</v>
+        <v>128.6776115777201</v>
       </c>
       <c r="U34" t="n">
-        <v>183.3085159551046</v>
+        <v>183.3085159551045</v>
       </c>
       <c r="V34" t="n">
-        <v>157.1331267569157</v>
+        <v>157.1331267569156</v>
       </c>
       <c r="W34" t="n">
         <v>182.3000128275289</v>
       </c>
       <c r="X34" t="n">
-        <v>127.9451148233321</v>
+        <v>127.945114823332</v>
       </c>
       <c r="Y34" t="n">
         <v>118.8199825793997</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>210.3049220700379</v>
+        <v>210.3049220700378</v>
       </c>
       <c r="C35" t="n">
-        <v>198.3162390277197</v>
+        <v>198.3162390277195</v>
       </c>
       <c r="D35" t="n">
-        <v>189.2975430722477</v>
+        <v>189.2975430722475</v>
       </c>
       <c r="E35" t="n">
-        <v>211.0396806421532</v>
+        <v>211.039680642153</v>
       </c>
       <c r="F35" t="n">
-        <v>230.2114967301304</v>
+        <v>230.2114967301302</v>
       </c>
       <c r="G35" t="n">
-        <v>231.5318415140687</v>
+        <v>231.5318415140685</v>
       </c>
       <c r="H35" t="n">
-        <v>143.4177807698927</v>
+        <v>143.4177807698925</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3317,22 +3317,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>39.63410382422083</v>
+        <v>39.63410382422066</v>
       </c>
       <c r="U35" t="n">
-        <v>72.48926702126616</v>
+        <v>72.48926702126599</v>
       </c>
       <c r="V35" t="n">
-        <v>153.8112993102171</v>
+        <v>153.8112993102169</v>
       </c>
       <c r="W35" t="n">
-        <v>179.111398788174</v>
+        <v>179.1113987881738</v>
       </c>
       <c r="X35" t="n">
-        <v>198.4116570209206</v>
+        <v>198.4116570209204</v>
       </c>
       <c r="Y35" t="n">
-        <v>209.8082548171193</v>
+        <v>209.8082548171192</v>
       </c>
     </row>
     <row r="36">
@@ -3351,10 +3351,10 @@
         <v>137.45025063969</v>
       </c>
       <c r="E36" t="n">
-        <v>145.5577298436975</v>
+        <v>95.41308887183327</v>
       </c>
       <c r="F36" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>127.1132721997666</v>
@@ -3396,10 +3396,10 @@
         <v>145.180098865789</v>
       </c>
       <c r="T36" t="n">
-        <v>5.678231215549295</v>
+        <v>185.4764132683503</v>
       </c>
       <c r="U36" t="n">
-        <v>212.5949503062775</v>
+        <v>216.2882692949636</v>
       </c>
       <c r="V36" t="n">
         <v>226.1116663261494</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.921632944735023</v>
+        <v>1.921632944734853</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3466,31 +3466,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>15.12980963648924</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>26.98309463678407</v>
+        <v>26.9830946367839</v>
       </c>
       <c r="T37" t="n">
-        <v>168.0683660247877</v>
+        <v>49.87425416516494</v>
       </c>
       <c r="U37" t="n">
-        <v>104.5051585425495</v>
+        <v>104.5051585425494</v>
       </c>
       <c r="V37" t="n">
-        <v>78.32976934436061</v>
+        <v>78.32976934436044</v>
       </c>
       <c r="W37" t="n">
-        <v>103.4966554149739</v>
+        <v>103.4966554149737</v>
       </c>
       <c r="X37" t="n">
-        <v>228.939939463578</v>
+        <v>152.2060596339114</v>
       </c>
       <c r="Y37" t="n">
-        <v>40.01662516684468</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="38">
@@ -3503,22 +3503,22 @@
         <v>210.3049220700378</v>
       </c>
       <c r="C38" t="n">
-        <v>198.3162390277196</v>
+        <v>198.3162390277195</v>
       </c>
       <c r="D38" t="n">
         <v>189.2975430722475</v>
       </c>
       <c r="E38" t="n">
-        <v>211.0396806421531</v>
+        <v>211.039680642153</v>
       </c>
       <c r="F38" t="n">
         <v>230.2114967301302</v>
       </c>
       <c r="G38" t="n">
-        <v>231.5318415140686</v>
+        <v>231.5318415140685</v>
       </c>
       <c r="H38" t="n">
-        <v>143.4177807698926</v>
+        <v>143.4177807698925</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3554,19 +3554,19 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>39.63410382422072</v>
+        <v>39.63410382422066</v>
       </c>
       <c r="U38" t="n">
-        <v>72.48926702126604</v>
+        <v>72.48926702126599</v>
       </c>
       <c r="V38" t="n">
-        <v>153.811299310217</v>
+        <v>153.8112993102169</v>
       </c>
       <c r="W38" t="n">
-        <v>179.1113987881739</v>
+        <v>179.1113987881738</v>
       </c>
       <c r="X38" t="n">
-        <v>198.4116570209205</v>
+        <v>198.4116570209204</v>
       </c>
       <c r="Y38" t="n">
         <v>209.8082548171192</v>
@@ -3627,16 +3627,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>38.8252071204612</v>
       </c>
       <c r="S39" t="n">
-        <v>145.180098865789</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>185.4764132683503</v>
+        <v>147.165011092652</v>
       </c>
       <c r="U39" t="n">
-        <v>71.62197537393786</v>
+        <v>216.2882692949636</v>
       </c>
       <c r="V39" t="n">
         <v>226.1116663261494</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.92163294473491</v>
+        <v>1.921632944734853</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3670,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3703,31 +3703,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.12980963648924</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>206.7812766895851</v>
+        <v>26.9830946367839</v>
       </c>
       <c r="T40" t="n">
-        <v>49.874254165165</v>
+        <v>49.87425416516494</v>
       </c>
       <c r="U40" t="n">
-        <v>207.5694607656835</v>
+        <v>104.5051585425494</v>
       </c>
       <c r="V40" t="n">
-        <v>78.3297693443605</v>
+        <v>78.32976934436044</v>
       </c>
       <c r="W40" t="n">
-        <v>103.4966554149738</v>
+        <v>103.4966554149737</v>
       </c>
       <c r="X40" t="n">
-        <v>49.14175741077688</v>
+        <v>196.1782028987211</v>
       </c>
       <c r="Y40" t="n">
-        <v>40.01662516684456</v>
+        <v>40.01662516684451</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>210.7131640938348</v>
+        <v>210.7131640938347</v>
       </c>
       <c r="C41" t="n">
         <v>198.7244810515165</v>
@@ -3755,7 +3755,7 @@
         <v>231.9400835378655</v>
       </c>
       <c r="H41" t="n">
-        <v>143.8260227936896</v>
+        <v>143.8260227936895</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,10 +3791,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>40.04234584801767</v>
+        <v>40.04234584801762</v>
       </c>
       <c r="U41" t="n">
-        <v>72.897509045063</v>
+        <v>72.89750904506295</v>
       </c>
       <c r="V41" t="n">
         <v>154.2195413340139</v>
@@ -3806,7 +3806,7 @@
         <v>198.8198990447174</v>
       </c>
       <c r="Y41" t="n">
-        <v>210.2164968409162</v>
+        <v>210.2164968409161</v>
       </c>
     </row>
     <row r="42">
@@ -3831,10 +3831,10 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G42" t="n">
-        <v>127.1132721997666</v>
+        <v>101.1076096969754</v>
       </c>
       <c r="H42" t="n">
-        <v>95.77124205704072</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3873,7 +3873,7 @@
         <v>185.4764132683503</v>
       </c>
       <c r="U42" t="n">
-        <v>94.51136473513299</v>
+        <v>216.2882692949636</v>
       </c>
       <c r="V42" t="n">
         <v>226.1116663261494</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2.329874968531868</v>
+        <v>130.9705746296111</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3907,7 +3907,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3940,31 +3940,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>15.12980963648924</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>27.39133666058091</v>
+        <v>27.39133666058085</v>
       </c>
       <c r="T43" t="n">
-        <v>50.28249618896196</v>
+        <v>50.2824961889619</v>
       </c>
       <c r="U43" t="n">
-        <v>104.9134005663464</v>
+        <v>104.9134005663463</v>
       </c>
       <c r="V43" t="n">
-        <v>78.73801136815746</v>
+        <v>78.7380113681574</v>
       </c>
       <c r="W43" t="n">
-        <v>283.2948374677749</v>
+        <v>103.9048974387707</v>
       </c>
       <c r="X43" t="n">
-        <v>49.54999943457383</v>
+        <v>49.54999943457378</v>
       </c>
       <c r="Y43" t="n">
-        <v>155.7612848836862</v>
+        <v>40.42486719064146</v>
       </c>
     </row>
     <row r="44">
@@ -4068,10 +4068,10 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G45" t="n">
-        <v>127.1132721997666</v>
+        <v>44.70015952468002</v>
       </c>
       <c r="H45" t="n">
-        <v>95.77124205704072</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>56.40745017229536</v>
@@ -4101,13 +4101,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>38.8252071204612</v>
       </c>
       <c r="S45" t="n">
         <v>145.180098865789</v>
       </c>
       <c r="T45" t="n">
-        <v>46.11726565668499</v>
+        <v>185.4764132683503</v>
       </c>
       <c r="U45" t="n">
         <v>216.2882692949636</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2.329874968531868</v>
+        <v>114.006613211155</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4177,7 +4177,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>15.12980963648924</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -4186,10 +4186,10 @@
         <v>27.39133666058091</v>
       </c>
       <c r="T46" t="n">
-        <v>229.6724362179661</v>
+        <v>50.28249618896196</v>
       </c>
       <c r="U46" t="n">
-        <v>220.249818259391</v>
+        <v>104.9134005663464</v>
       </c>
       <c r="V46" t="n">
         <v>78.73801136815746</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>344.7263771276212</v>
+        <v>1046.115726444998</v>
       </c>
       <c r="C11" t="n">
-        <v>344.7263771276212</v>
+        <v>837.3028770378343</v>
       </c>
       <c r="D11" t="n">
-        <v>344.7263771276212</v>
+        <v>637.5998215250863</v>
       </c>
       <c r="E11" t="n">
-        <v>344.7263771276212</v>
+        <v>415.9350108912216</v>
       </c>
       <c r="F11" t="n">
-        <v>344.7263771276212</v>
+        <v>174.9047294614205</v>
       </c>
       <c r="G11" t="n">
-        <v>176.8870310416172</v>
+        <v>23.52716977367234</v>
       </c>
       <c r="H11" t="n">
-        <v>23.52716977367231</v>
+        <v>23.52716977367234</v>
       </c>
       <c r="I11" t="n">
-        <v>23.52716977367231</v>
+        <v>23.52716977367234</v>
       </c>
       <c r="J11" t="n">
-        <v>147.0265863185274</v>
+        <v>147.0265863185273</v>
       </c>
       <c r="K11" t="n">
-        <v>147.0265863185274</v>
+        <v>438.1753122677225</v>
       </c>
       <c r="L11" t="n">
-        <v>147.0265863185274</v>
+        <v>729.3240382169178</v>
       </c>
       <c r="M11" t="n">
-        <v>434.1018702361338</v>
+        <v>1016.399322134525</v>
       </c>
       <c r="N11" t="n">
-        <v>434.1018702361338</v>
+        <v>1016.399322134525</v>
       </c>
       <c r="O11" t="n">
-        <v>725.2505961853285</v>
+        <v>1016.399322134525</v>
       </c>
       <c r="P11" t="n">
-        <v>1016.399322134523</v>
+        <v>1016.399322134525</v>
       </c>
       <c r="Q11" t="n">
-        <v>1176.358488683615</v>
+        <v>1176.358488683617</v>
       </c>
       <c r="R11" t="n">
-        <v>1176.358488683615</v>
+        <v>1176.358488683617</v>
       </c>
       <c r="S11" t="n">
-        <v>1176.358488683615</v>
+        <v>1176.358488683617</v>
       </c>
       <c r="T11" t="n">
-        <v>1127.83062433049</v>
+        <v>1127.830624330492</v>
       </c>
       <c r="U11" t="n">
-        <v>1127.83062433049</v>
+        <v>1046.115726444998</v>
       </c>
       <c r="V11" t="n">
-        <v>963.9722594864602</v>
+        <v>1046.115726444998</v>
       </c>
       <c r="W11" t="n">
-        <v>774.5582386040898</v>
+        <v>1046.115726444998</v>
       </c>
       <c r="X11" t="n">
-        <v>565.6490073856116</v>
+        <v>1046.115726444998</v>
       </c>
       <c r="Y11" t="n">
-        <v>565.6490073856116</v>
+        <v>1046.115726444998</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>185.2308425327176</v>
+        <v>567.8361178260795</v>
       </c>
       <c r="C12" t="n">
-        <v>23.52716977367231</v>
+        <v>406.1324450670342</v>
       </c>
       <c r="D12" t="n">
-        <v>23.52716977367231</v>
+        <v>267.2938080572463</v>
       </c>
       <c r="E12" t="n">
-        <v>23.52716977367231</v>
+        <v>120.2657981141175</v>
       </c>
       <c r="F12" t="n">
-        <v>23.52716977367231</v>
+        <v>120.2657981141175</v>
       </c>
       <c r="G12" t="n">
-        <v>23.52716977367231</v>
+        <v>120.2657981141175</v>
       </c>
       <c r="H12" t="n">
-        <v>23.52716977367231</v>
+        <v>23.52716977367234</v>
       </c>
       <c r="I12" t="n">
-        <v>23.52716977367231</v>
+        <v>23.52716977367234</v>
       </c>
       <c r="J12" t="n">
-        <v>23.52716977367231</v>
+        <v>23.52716977367234</v>
       </c>
       <c r="K12" t="n">
-        <v>23.52716977367231</v>
+        <v>23.52716977367234</v>
       </c>
       <c r="L12" t="n">
-        <v>302.912310836031</v>
+        <v>23.52716977367234</v>
       </c>
       <c r="M12" t="n">
-        <v>594.0610367852257</v>
+        <v>314.6758957228676</v>
       </c>
       <c r="N12" t="n">
-        <v>885.2097627344205</v>
+        <v>605.8246216720629</v>
       </c>
       <c r="O12" t="n">
-        <v>885.2097627344205</v>
+        <v>896.9733476212582</v>
       </c>
       <c r="P12" t="n">
-        <v>1176.358488683615</v>
+        <v>1176.358488683617</v>
       </c>
       <c r="Q12" t="n">
-        <v>1176.358488683615</v>
+        <v>1176.358488683617</v>
       </c>
       <c r="R12" t="n">
-        <v>1176.358488683615</v>
+        <v>1176.358488683617</v>
       </c>
       <c r="S12" t="n">
-        <v>1176.358488683615</v>
+        <v>1176.358488683617</v>
       </c>
       <c r="T12" t="n">
-        <v>1077.031271872746</v>
+        <v>1162.129485551373</v>
       </c>
       <c r="U12" t="n">
-        <v>1031.679181844933</v>
+        <v>1116.777395523559</v>
       </c>
       <c r="V12" t="n">
-        <v>976.4044685532951</v>
+        <v>1026.469391805368</v>
       </c>
       <c r="W12" t="n">
-        <v>735.0885997866052</v>
+        <v>785.1535230386777</v>
       </c>
       <c r="X12" t="n">
-        <v>537.1716116643997</v>
+        <v>587.2365349164722</v>
       </c>
       <c r="Y12" t="n">
-        <v>344.6502853139785</v>
+        <v>567.8361178260795</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>23.52716977367231</v>
+        <v>256.5821584902792</v>
       </c>
       <c r="C13" t="n">
-        <v>23.52716977367231</v>
+        <v>256.5821584902792</v>
       </c>
       <c r="D13" t="n">
-        <v>23.52716977367231</v>
+        <v>256.5821584902792</v>
       </c>
       <c r="E13" t="n">
-        <v>23.52716977367231</v>
+        <v>256.5821584902792</v>
       </c>
       <c r="F13" t="n">
-        <v>23.52716977367231</v>
+        <v>256.5821584902792</v>
       </c>
       <c r="G13" t="n">
-        <v>23.52716977367231</v>
+        <v>180.4306909218591</v>
       </c>
       <c r="H13" t="n">
-        <v>23.52716977367231</v>
+        <v>23.52716977367234</v>
       </c>
       <c r="I13" t="n">
-        <v>23.52716977367231</v>
+        <v>23.52716977367234</v>
       </c>
       <c r="J13" t="n">
-        <v>23.52716977367231</v>
+        <v>23.52716977367234</v>
       </c>
       <c r="K13" t="n">
-        <v>88.75452017135979</v>
+        <v>88.75452017135977</v>
       </c>
       <c r="L13" t="n">
         <v>229.8283602936758</v>
       </c>
       <c r="M13" t="n">
-        <v>390.4883917441601</v>
+        <v>390.48839174416</v>
       </c>
       <c r="N13" t="n">
-        <v>550.562744208838</v>
+        <v>550.5627442088378</v>
       </c>
       <c r="O13" t="n">
-        <v>687.4987641731919</v>
+        <v>687.4987641731916</v>
       </c>
       <c r="P13" t="n">
-        <v>783.3870097116661</v>
+        <v>783.3870097116657</v>
       </c>
       <c r="Q13" t="n">
-        <v>783.3870097116661</v>
+        <v>783.3870097116657</v>
       </c>
       <c r="R13" t="n">
-        <v>783.3870097116661</v>
+        <v>783.3870097116657</v>
       </c>
       <c r="S13" t="n">
-        <v>747.6379425175683</v>
+        <v>747.6379425175678</v>
       </c>
       <c r="T13" t="n">
-        <v>688.7664919614695</v>
+        <v>688.7664919614689</v>
       </c>
       <c r="U13" t="n">
-        <v>574.7123097110428</v>
+        <v>574.7123097110423</v>
       </c>
       <c r="V13" t="n">
-        <v>487.097914529494</v>
+        <v>487.0979145294933</v>
       </c>
       <c r="W13" t="n">
-        <v>374.0624223069216</v>
+        <v>374.0624223069209</v>
       </c>
       <c r="X13" t="n">
-        <v>255.9967880057465</v>
+        <v>315.9308674623251</v>
       </c>
       <c r="Y13" t="n">
-        <v>207.0825384580521</v>
+        <v>267.0166179146306</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>673.3481303824883</v>
+        <v>915.4373191531242</v>
       </c>
       <c r="C14" t="n">
-        <v>673.3481303824883</v>
+        <v>706.6244697459601</v>
       </c>
       <c r="D14" t="n">
-        <v>473.6450748697405</v>
+        <v>506.9214142332122</v>
       </c>
       <c r="E14" t="n">
-        <v>419.2509940713559</v>
+        <v>506.9214142332122</v>
       </c>
       <c r="F14" t="n">
-        <v>419.2509940713559</v>
+        <v>265.8911328034112</v>
       </c>
       <c r="G14" t="n">
-        <v>176.8870310416172</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="H14" t="n">
         <v>23.52716977367231</v>
@@ -5282,19 +5282,19 @@
         <v>438.175312267722</v>
       </c>
       <c r="L14" t="n">
-        <v>729.3240382169167</v>
+        <v>725.2505961853286</v>
       </c>
       <c r="M14" t="n">
-        <v>1020.472764166111</v>
+        <v>725.2505961853286</v>
       </c>
       <c r="N14" t="n">
-        <v>1176.358488683615</v>
+        <v>725.2505961853286</v>
       </c>
       <c r="O14" t="n">
-        <v>1176.358488683615</v>
+        <v>1016.399322134523</v>
       </c>
       <c r="P14" t="n">
-        <v>1176.358488683615</v>
+        <v>1016.399322134523</v>
       </c>
       <c r="Q14" t="n">
         <v>1176.358488683615</v>
@@ -5309,19 +5309,19 @@
         <v>1127.83062433049</v>
       </c>
       <c r="U14" t="n">
-        <v>1046.115726444997</v>
+        <v>1127.83062433049</v>
       </c>
       <c r="V14" t="n">
-        <v>882.2573616009664</v>
+        <v>1127.83062433049</v>
       </c>
       <c r="W14" t="n">
-        <v>882.2573616009664</v>
+        <v>1127.83062433049</v>
       </c>
       <c r="X14" t="n">
-        <v>673.3481303824883</v>
+        <v>918.9213931120122</v>
       </c>
       <c r="Y14" t="n">
-        <v>673.3481303824883</v>
+        <v>915.4373191531242</v>
       </c>
     </row>
     <row r="15">
@@ -5331,16 +5331,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>83.50668047254592</v>
+        <v>605.7912875357599</v>
       </c>
       <c r="C15" t="n">
-        <v>83.50668047254592</v>
+        <v>444.0876147767146</v>
       </c>
       <c r="D15" t="n">
-        <v>23.52716977367231</v>
+        <v>305.2489777669267</v>
       </c>
       <c r="E15" t="n">
-        <v>23.52716977367231</v>
+        <v>158.220967823798</v>
       </c>
       <c r="F15" t="n">
         <v>23.52716977367231</v>
@@ -5355,25 +5355,25 @@
         <v>23.52716977367231</v>
       </c>
       <c r="J15" t="n">
-        <v>114.4548830157152</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="K15" t="n">
-        <v>114.4548830157152</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="L15" t="n">
-        <v>114.4548830157152</v>
+        <v>314.675895722867</v>
       </c>
       <c r="M15" t="n">
-        <v>114.4548830157152</v>
+        <v>605.8246216720618</v>
       </c>
       <c r="N15" t="n">
-        <v>394.8464152398758</v>
+        <v>605.8246216720618</v>
       </c>
       <c r="O15" t="n">
-        <v>685.9951411890705</v>
+        <v>896.9733476212565</v>
       </c>
       <c r="P15" t="n">
-        <v>977.1438671382653</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="Q15" t="n">
         <v>1176.358488683615</v>
@@ -5388,19 +5388,19 @@
         <v>1162.129485551371</v>
       </c>
       <c r="U15" t="n">
-        <v>943.6564862635286</v>
+        <v>1116.777395523557</v>
       </c>
       <c r="V15" t="n">
-        <v>715.2608637118625</v>
+        <v>1061.50268223192</v>
       </c>
       <c r="W15" t="n">
-        <v>473.9449949451725</v>
+        <v>993.3077227252581</v>
       </c>
       <c r="X15" t="n">
-        <v>276.0280068229671</v>
+        <v>957.732056667442</v>
       </c>
       <c r="Y15" t="n">
-        <v>83.50668047254592</v>
+        <v>765.2107303170208</v>
       </c>
     </row>
     <row r="16">
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>23.52716977367231</v>
+        <v>176.0078247478952</v>
       </c>
       <c r="C16" t="n">
-        <v>23.52716977367231</v>
+        <v>176.0078247478952</v>
       </c>
       <c r="D16" t="n">
-        <v>23.52716977367231</v>
+        <v>176.0078247478952</v>
       </c>
       <c r="E16" t="n">
-        <v>23.52716977367231</v>
+        <v>176.0078247478952</v>
       </c>
       <c r="F16" t="n">
         <v>23.52716977367231</v>
@@ -5470,16 +5470,16 @@
         <v>574.7123097110423</v>
       </c>
       <c r="V16" t="n">
-        <v>313.9770052694649</v>
+        <v>487.0979145294934</v>
       </c>
       <c r="W16" t="n">
-        <v>141.0074335903137</v>
+        <v>374.0624223069211</v>
       </c>
       <c r="X16" t="n">
-        <v>82.875878745718</v>
+        <v>315.9308674623254</v>
       </c>
       <c r="Y16" t="n">
-        <v>33.96162919802361</v>
+        <v>267.016617914631</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>680.846338834031</v>
+        <v>680.8463388340313</v>
       </c>
       <c r="C17" t="n">
-        <v>573.6360981303507</v>
+        <v>573.636098130351</v>
       </c>
       <c r="D17" t="n">
-        <v>475.5356513210864</v>
+        <v>475.5356513210868</v>
       </c>
       <c r="E17" t="n">
-        <v>355.4734493907056</v>
+        <v>355.473449390706</v>
       </c>
       <c r="F17" t="n">
-        <v>216.0457766643881</v>
+        <v>216.0457766643885</v>
       </c>
       <c r="G17" t="n">
-        <v>75.2844223381335</v>
+        <v>75.28442233813342</v>
       </c>
       <c r="H17" t="n">
         <v>23.52716977367231</v>
@@ -5516,19 +5516,19 @@
         <v>23.52716977367231</v>
       </c>
       <c r="K17" t="n">
-        <v>23.52716977367231</v>
+        <v>302.912310836031</v>
       </c>
       <c r="L17" t="n">
-        <v>314.675895722867</v>
+        <v>594.0610367852257</v>
       </c>
       <c r="M17" t="n">
-        <v>605.8246216720618</v>
+        <v>885.2097627344205</v>
       </c>
       <c r="N17" t="n">
-        <v>605.8246216720618</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="O17" t="n">
-        <v>885.2097627344205</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="P17" t="n">
         <v>1176.358488683615</v>
@@ -5555,10 +5555,10 @@
         <v>1026.291320364182</v>
       </c>
       <c r="X17" t="n">
-        <v>918.9846978491876</v>
+        <v>918.9846978491879</v>
       </c>
       <c r="Y17" t="n">
-        <v>800.1663603885379</v>
+        <v>800.1663603885381</v>
       </c>
     </row>
     <row r="18">
@@ -5592,46 +5592,46 @@
         <v>23.52716977367231</v>
       </c>
       <c r="J18" t="n">
-        <v>114.4548830157152</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="K18" t="n">
-        <v>396.3714466953006</v>
+        <v>302.912310836031</v>
       </c>
       <c r="L18" t="n">
-        <v>396.3714466953006</v>
+        <v>302.912310836031</v>
       </c>
       <c r="M18" t="n">
-        <v>396.3714466953006</v>
+        <v>594.0610367852257</v>
       </c>
       <c r="N18" t="n">
-        <v>396.3714466953006</v>
+        <v>885.2097627344205</v>
       </c>
       <c r="O18" t="n">
-        <v>685.9951411890705</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="P18" t="n">
-        <v>977.1438671382653</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="Q18" t="n">
         <v>1176.358488683615</v>
       </c>
       <c r="R18" t="n">
-        <v>1137.141107753856</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="S18" t="n">
-        <v>1137.141107753856</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="T18" t="n">
-        <v>1137.141107753856</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="U18" t="n">
-        <v>1137.141107753856</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="V18" t="n">
-        <v>1137.141107753856</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="W18" t="n">
-        <v>1137.141107753856</v>
+        <v>1155.649044789647</v>
       </c>
       <c r="X18" t="n">
         <v>957.732056667442</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>666.2748438155539</v>
+        <v>346.2150324842293</v>
       </c>
       <c r="C19" t="n">
-        <v>496.6588742772342</v>
+        <v>176.5990629459096</v>
       </c>
       <c r="D19" t="n">
-        <v>496.6588742772342</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="E19" t="n">
-        <v>344.649860038553</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="F19" t="n">
-        <v>192.1692050643302</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="G19" t="n">
         <v>23.52716977367231</v>
@@ -5692,31 +5692,31 @@
         <v>783.3870097116657</v>
       </c>
       <c r="Q19" t="n">
-        <v>768.1043737152119</v>
+        <v>783.3870097116657</v>
       </c>
       <c r="R19" t="n">
-        <v>690.1593008815853</v>
+        <v>783.3870097116657</v>
       </c>
       <c r="S19" t="n">
-        <v>690.1593008815853</v>
+        <v>783.3870097116657</v>
       </c>
       <c r="T19" t="n">
-        <v>690.1593008815853</v>
+        <v>783.3870097116657</v>
       </c>
       <c r="U19" t="n">
-        <v>677.7077273346425</v>
+        <v>770.9354361647229</v>
       </c>
       <c r="V19" t="n">
-        <v>677.7077273346425</v>
+        <v>770.9354361647229</v>
       </c>
       <c r="W19" t="n">
-        <v>666.2748438155539</v>
+        <v>751.8055599763321</v>
       </c>
       <c r="X19" t="n">
-        <v>666.2748438155539</v>
+        <v>751.8055599763321</v>
       </c>
       <c r="Y19" t="n">
-        <v>666.2748438155539</v>
+        <v>529.7704011686092</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>680.8463388340318</v>
+        <v>680.8463388340313</v>
       </c>
       <c r="C20" t="n">
-        <v>573.6360981303516</v>
+        <v>573.636098130351</v>
       </c>
       <c r="D20" t="n">
-        <v>475.5356513210875</v>
+        <v>475.5356513210866</v>
       </c>
       <c r="E20" t="n">
-        <v>355.4734493907068</v>
+        <v>355.4734493907058</v>
       </c>
       <c r="F20" t="n">
-        <v>216.0457766643895</v>
+        <v>216.0457766643885</v>
       </c>
       <c r="G20" t="n">
-        <v>75.28442233813338</v>
+        <v>75.28442233813344</v>
       </c>
       <c r="H20" t="n">
         <v>23.52716977367231</v>
@@ -5753,13 +5753,13 @@
         <v>23.52716977367231</v>
       </c>
       <c r="K20" t="n">
-        <v>314.675895722867</v>
+        <v>302.912310836031</v>
       </c>
       <c r="L20" t="n">
-        <v>605.8246216720618</v>
+        <v>594.0610367852257</v>
       </c>
       <c r="M20" t="n">
-        <v>885.2097627344205</v>
+        <v>594.0610367852257</v>
       </c>
       <c r="N20" t="n">
         <v>885.2097627344205</v>
@@ -5792,10 +5792,10 @@
         <v>1026.291320364182</v>
       </c>
       <c r="X20" t="n">
-        <v>918.9846978491881</v>
+        <v>918.9846978491879</v>
       </c>
       <c r="Y20" t="n">
-        <v>800.1663603885386</v>
+        <v>800.1663603885381</v>
       </c>
     </row>
     <row r="21">
@@ -5820,10 +5820,10 @@
         <v>44.23661366764006</v>
       </c>
       <c r="G21" t="n">
-        <v>44.23661366764006</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="H21" t="n">
-        <v>44.23661366764006</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="I21" t="n">
         <v>23.52716977367231</v>
@@ -5838,16 +5838,16 @@
         <v>596.5924594024525</v>
       </c>
       <c r="M21" t="n">
-        <v>685.9951411890705</v>
+        <v>596.5924594024525</v>
       </c>
       <c r="N21" t="n">
-        <v>685.9951411890705</v>
+        <v>596.5924594024525</v>
       </c>
       <c r="O21" t="n">
-        <v>977.1438671382653</v>
+        <v>887.7411853516472</v>
       </c>
       <c r="P21" t="n">
-        <v>977.1438671382653</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="Q21" t="n">
         <v>1176.358488683615</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>23.52716977367231</v>
+        <v>344.6947198566303</v>
       </c>
       <c r="C22" t="n">
-        <v>23.52716977367231</v>
+        <v>344.6947198566303</v>
       </c>
       <c r="D22" t="n">
-        <v>23.52716977367231</v>
+        <v>191.622826684393</v>
       </c>
       <c r="E22" t="n">
-        <v>23.52716977367231</v>
+        <v>191.622826684393</v>
       </c>
       <c r="F22" t="n">
-        <v>23.52716977367231</v>
+        <v>39.14217171017012</v>
       </c>
       <c r="G22" t="n">
         <v>23.52716977367231</v>
@@ -5929,31 +5929,31 @@
         <v>783.3870097116657</v>
       </c>
       <c r="Q22" t="n">
-        <v>768.1043737152119</v>
+        <v>783.3870097116657</v>
       </c>
       <c r="R22" t="n">
-        <v>768.1043737152119</v>
+        <v>783.3870097116657</v>
       </c>
       <c r="S22" t="n">
-        <v>768.1043737152119</v>
+        <v>783.3870097116657</v>
       </c>
       <c r="T22" t="n">
-        <v>768.1043737152119</v>
+        <v>783.3870097116657</v>
       </c>
       <c r="U22" t="n">
-        <v>570.4188756978506</v>
+        <v>770.9354361647229</v>
       </c>
       <c r="V22" t="n">
-        <v>309.6835712562732</v>
+        <v>770.9354361647229</v>
       </c>
       <c r="W22" t="n">
-        <v>23.52716977367231</v>
+        <v>759.5025526456343</v>
       </c>
       <c r="X22" t="n">
-        <v>23.52716977367231</v>
+        <v>528.2500885410101</v>
       </c>
       <c r="Y22" t="n">
-        <v>23.52716977367231</v>
+        <v>528.2500885410101</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>680.8463388340308</v>
+        <v>680.846338834031</v>
       </c>
       <c r="C23" t="n">
-        <v>573.6360981303505</v>
+        <v>573.6360981303508</v>
       </c>
       <c r="D23" t="n">
         <v>475.5356513210866</v>
       </c>
       <c r="E23" t="n">
-        <v>355.473449390706</v>
+        <v>355.4734493907058</v>
       </c>
       <c r="F23" t="n">
-        <v>216.0457766643888</v>
+        <v>216.0457766643885</v>
       </c>
       <c r="G23" t="n">
-        <v>75.28442233813337</v>
+        <v>75.28442233813342</v>
       </c>
       <c r="H23" t="n">
-        <v>23.52716977367229</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="I23" t="n">
-        <v>23.52716977367229</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="J23" t="n">
-        <v>23.52716977367229</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="K23" t="n">
-        <v>314.6758957228669</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="L23" t="n">
-        <v>605.8246216720615</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="M23" t="n">
-        <v>725.250596185328</v>
+        <v>302.912310836031</v>
       </c>
       <c r="N23" t="n">
-        <v>725.250596185328</v>
+        <v>594.0610367852257</v>
       </c>
       <c r="O23" t="n">
-        <v>725.250596185328</v>
+        <v>885.2097627344205</v>
       </c>
       <c r="P23" t="n">
-        <v>1016.399322134523</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="Q23" t="n">
-        <v>1176.358488683614</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="R23" t="n">
-        <v>1176.358488683614</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="S23" t="n">
-        <v>1176.358488683614</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="T23" t="n">
-        <v>1176.358488683614</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="U23" t="n">
-        <v>1176.358488683614</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="V23" t="n">
-        <v>1114.102732543068</v>
+        <v>1114.102732543069</v>
       </c>
       <c r="W23" t="n">
         <v>1026.291320364182</v>
       </c>
       <c r="X23" t="n">
-        <v>918.9846978491873</v>
+        <v>918.9846978491876</v>
       </c>
       <c r="Y23" t="n">
-        <v>800.1663603885376</v>
+        <v>800.1663603885379</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>23.52716977367229</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="C24" t="n">
-        <v>23.52716977367229</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="D24" t="n">
-        <v>23.52716977367229</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="E24" t="n">
-        <v>23.52716977367229</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="F24" t="n">
-        <v>23.52716977367229</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="G24" t="n">
-        <v>23.52716977367229</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="H24" t="n">
-        <v>23.52716977367229</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="I24" t="n">
-        <v>23.52716977367229</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="J24" t="n">
-        <v>114.4548830157152</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="K24" t="n">
-        <v>114.4548830157152</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="L24" t="n">
-        <v>405.6036089649099</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="M24" t="n">
-        <v>696.7523349141045</v>
+        <v>103.6976892906812</v>
       </c>
       <c r="N24" t="n">
-        <v>977.1438671382646</v>
+        <v>394.8464152398759</v>
       </c>
       <c r="O24" t="n">
-        <v>977.1438671382646</v>
+        <v>685.9951411890706</v>
       </c>
       <c r="P24" t="n">
-        <v>977.1438671382646</v>
+        <v>977.1438671382654</v>
       </c>
       <c r="Q24" t="n">
-        <v>1176.358488683614</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="R24" t="n">
-        <v>1137.141107753856</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="S24" t="n">
-        <v>1137.141107753856</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="T24" t="n">
-        <v>1102.149974852497</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="U24" t="n">
-        <v>883.6769755646549</v>
+        <v>957.8854893957731</v>
       </c>
       <c r="V24" t="n">
-        <v>655.2813530129888</v>
+        <v>729.489866844107</v>
       </c>
       <c r="W24" t="n">
-        <v>413.9654842462988</v>
+        <v>488.1739980774171</v>
       </c>
       <c r="X24" t="n">
-        <v>216.0484961240934</v>
+        <v>290.2570099552116</v>
       </c>
       <c r="Y24" t="n">
-        <v>23.52716977367229</v>
+        <v>97.73568360479047</v>
       </c>
     </row>
     <row r="25">
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>311.3876308309834</v>
+        <v>650.7047016971334</v>
       </c>
       <c r="C25" t="n">
-        <v>311.3876308309834</v>
+        <v>481.0887321588136</v>
       </c>
       <c r="D25" t="n">
-        <v>311.3876308309834</v>
+        <v>328.0168389865764</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3786165923023</v>
+        <v>176.0078247478952</v>
       </c>
       <c r="F25" t="n">
-        <v>159.3786165923023</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="G25" t="n">
-        <v>159.3786165923023</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="H25" t="n">
-        <v>159.3786165923023</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="I25" t="n">
-        <v>23.52716977367229</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="J25" t="n">
-        <v>23.52716977367229</v>
+        <v>23.52716977367231</v>
       </c>
       <c r="K25" t="n">
         <v>88.75452017135973</v>
@@ -6166,31 +6166,31 @@
         <v>783.3870097116657</v>
       </c>
       <c r="Q25" t="n">
-        <v>783.3870097116657</v>
+        <v>768.1043737152119</v>
       </c>
       <c r="R25" t="n">
-        <v>783.3870097116657</v>
+        <v>768.1043737152119</v>
       </c>
       <c r="S25" t="n">
-        <v>574.5170332575393</v>
+        <v>768.1043737152119</v>
       </c>
       <c r="T25" t="n">
-        <v>342.5246734414119</v>
+        <v>768.1043737152119</v>
       </c>
       <c r="U25" t="n">
-        <v>322.8205143500719</v>
+        <v>755.6528001682691</v>
       </c>
       <c r="V25" t="n">
-        <v>322.8205143500719</v>
+        <v>755.6528001682691</v>
       </c>
       <c r="W25" t="n">
-        <v>311.3876308309834</v>
+        <v>650.7047016971334</v>
       </c>
       <c r="X25" t="n">
-        <v>311.3876308309834</v>
+        <v>650.7047016971334</v>
       </c>
       <c r="Y25" t="n">
-        <v>311.3876308309834</v>
+        <v>650.7047016971334</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1810.772001306256</v>
+        <v>1810.772001306255</v>
       </c>
       <c r="C26" t="n">
         <v>1530.85321702315</v>
       </c>
       <c r="D26" t="n">
-        <v>1260.044226634461</v>
+        <v>1260.04422663446</v>
       </c>
       <c r="E26" t="n">
-        <v>967.2734811246544</v>
+        <v>967.2734811246538</v>
       </c>
       <c r="F26" t="n">
-        <v>655.1372648189116</v>
+        <v>655.1372648189108</v>
       </c>
       <c r="G26" t="n">
-        <v>341.667366913231</v>
+        <v>341.6673669132306</v>
       </c>
       <c r="H26" t="n">
         <v>117.2015707693439</v>
@@ -6224,25 +6224,25 @@
         <v>70.26774871838822</v>
       </c>
       <c r="J26" t="n">
-        <v>234.236261878573</v>
+        <v>293.7520416570867</v>
       </c>
       <c r="K26" t="n">
-        <v>651.5479676290971</v>
+        <v>711.0637474076108</v>
       </c>
       <c r="L26" t="n">
-        <v>1095.189966302891</v>
+        <v>1195.174842696733</v>
       </c>
       <c r="M26" t="n">
-        <v>1694.9617052439</v>
+        <v>1694.961705243899</v>
       </c>
       <c r="N26" t="n">
-        <v>2281.549689737762</v>
+        <v>2281.549689737761</v>
       </c>
       <c r="O26" t="n">
-        <v>2788.77709334913</v>
+        <v>2788.777093349129</v>
       </c>
       <c r="P26" t="n">
-        <v>3204.176584973218</v>
+        <v>3204.176584973217</v>
       </c>
       <c r="Q26" t="n">
         <v>3464.120627916153</v>
@@ -6251,25 +6251,25 @@
         <v>3513.387435919411</v>
       </c>
       <c r="S26" t="n">
-        <v>3442.28150104347</v>
+        <v>3442.281501043469</v>
       </c>
       <c r="T26" t="n">
-        <v>3322.647701814403</v>
+        <v>3322.647701814402</v>
       </c>
       <c r="U26" t="n">
-        <v>3169.826869052968</v>
+        <v>3169.826869052967</v>
       </c>
       <c r="V26" t="n">
-        <v>2934.862569332996</v>
+        <v>2934.862569332995</v>
       </c>
       <c r="W26" t="n">
-        <v>2674.342613574684</v>
+        <v>2674.342613574683</v>
       </c>
       <c r="X26" t="n">
-        <v>2394.327447480264</v>
+        <v>2394.327447480263</v>
       </c>
       <c r="Y26" t="n">
-        <v>2102.800566440189</v>
+        <v>2102.800566440188</v>
       </c>
     </row>
     <row r="27">
@@ -6306,22 +6306,22 @@
         <v>70.26774871838822</v>
       </c>
       <c r="K27" t="n">
-        <v>70.26774871838822</v>
+        <v>113.0471667868014</v>
       </c>
       <c r="L27" t="n">
-        <v>506.5828356101471</v>
+        <v>549.3622536785603</v>
       </c>
       <c r="M27" t="n">
-        <v>1073.878477258124</v>
+        <v>1116.657895326537</v>
       </c>
       <c r="N27" t="n">
-        <v>1669.583649506924</v>
+        <v>1712.363067575337</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.02927009562</v>
+        <v>2181.808688164033</v>
       </c>
       <c r="P27" t="n">
-        <v>2503.12164948801</v>
+        <v>2545.901067556423</v>
       </c>
       <c r="Q27" t="n">
         <v>2545.901067556423</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>444.737463210716</v>
+        <v>444.7374632107158</v>
       </c>
       <c r="C28" t="n">
-        <v>377.1364680564832</v>
+        <v>377.1364680564829</v>
       </c>
       <c r="D28" t="n">
-        <v>326.0795492683328</v>
+        <v>326.0795492683325</v>
       </c>
       <c r="E28" t="n">
-        <v>276.0855094137385</v>
+        <v>276.0855094137382</v>
       </c>
       <c r="F28" t="n">
-        <v>225.6198288236024</v>
+        <v>225.6198288236022</v>
       </c>
       <c r="G28" t="n">
-        <v>158.9927679170314</v>
+        <v>158.9927679170312</v>
       </c>
       <c r="H28" t="n">
         <v>104.1042211529313</v>
@@ -6385,13 +6385,13 @@
         <v>130.6341355862126</v>
       </c>
       <c r="K28" t="n">
-        <v>295.8463623777436</v>
+        <v>295.8463623777435</v>
       </c>
       <c r="L28" t="n">
-        <v>536.9050788939031</v>
+        <v>536.905078893903</v>
       </c>
       <c r="M28" t="n">
-        <v>797.5499867382306</v>
+        <v>797.549986738231</v>
       </c>
       <c r="N28" t="n">
         <v>1057.609215596752</v>
@@ -6418,16 +6418,16 @@
         <v>1118.397288811187</v>
       </c>
       <c r="V28" t="n">
-        <v>959.6769587536966</v>
+        <v>959.6769587536961</v>
       </c>
       <c r="W28" t="n">
-        <v>775.5355316551826</v>
+        <v>775.5355316551821</v>
       </c>
       <c r="X28" t="n">
-        <v>646.2980419346452</v>
+        <v>646.2980419346447</v>
       </c>
       <c r="Y28" t="n">
-        <v>526.277857511009</v>
+        <v>526.2778575110087</v>
       </c>
     </row>
     <row r="29">
@@ -6437,43 +6437,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1810.772001306255</v>
+        <v>1810.772001306256</v>
       </c>
       <c r="C29" t="n">
-        <v>1530.853217023149</v>
+        <v>1530.85321702315</v>
       </c>
       <c r="D29" t="n">
-        <v>1260.04422663446</v>
+        <v>1260.044226634461</v>
       </c>
       <c r="E29" t="n">
-        <v>967.2734811246538</v>
+        <v>967.2734811246546</v>
       </c>
       <c r="F29" t="n">
-        <v>655.137264818911</v>
+        <v>655.1372648189117</v>
       </c>
       <c r="G29" t="n">
-        <v>341.6673669132305</v>
+        <v>341.6673669132304</v>
       </c>
       <c r="H29" t="n">
         <v>117.2015707693439</v>
       </c>
       <c r="I29" t="n">
-        <v>70.26774871838821</v>
+        <v>70.26774871838822</v>
       </c>
       <c r="J29" t="n">
-        <v>234.2362618785709</v>
+        <v>193.7671652632432</v>
       </c>
       <c r="K29" t="n">
-        <v>551.5630912352515</v>
+        <v>611.0788710137673</v>
       </c>
       <c r="L29" t="n">
-        <v>1095.189966302888</v>
+        <v>1154.705746081404</v>
       </c>
       <c r="M29" t="n">
-        <v>1694.961705243898</v>
+        <v>1754.477485022413</v>
       </c>
       <c r="N29" t="n">
-        <v>2281.54968973776</v>
+        <v>2281.549689737761</v>
       </c>
       <c r="O29" t="n">
         <v>2788.777093349129</v>
@@ -6482,13 +6482,13 @@
         <v>3204.176584973217</v>
       </c>
       <c r="Q29" t="n">
-        <v>3464.120627916152</v>
+        <v>3464.120627916153</v>
       </c>
       <c r="R29" t="n">
-        <v>3513.38743591941</v>
+        <v>3513.387435919411</v>
       </c>
       <c r="S29" t="n">
-        <v>3442.281501043468</v>
+        <v>3442.281501043469</v>
       </c>
       <c r="T29" t="n">
         <v>3322.647701814402</v>
@@ -6497,16 +6497,16 @@
         <v>3169.826869052967</v>
       </c>
       <c r="V29" t="n">
-        <v>2934.862569332994</v>
+        <v>2934.862569332995</v>
       </c>
       <c r="W29" t="n">
-        <v>2674.342613574682</v>
+        <v>2674.342613574683</v>
       </c>
       <c r="X29" t="n">
-        <v>2394.327447480262</v>
+        <v>2394.327447480263</v>
       </c>
       <c r="Y29" t="n">
-        <v>2102.800566440187</v>
+        <v>2102.800566440189</v>
       </c>
     </row>
     <row r="30">
@@ -6534,31 +6534,31 @@
         <v>223.9835994550913</v>
       </c>
       <c r="H30" t="n">
-        <v>127.2449711146461</v>
+        <v>127.2449711146462</v>
       </c>
       <c r="I30" t="n">
-        <v>70.26774871838821</v>
+        <v>70.26774871838822</v>
       </c>
       <c r="J30" t="n">
-        <v>70.26774871838821</v>
+        <v>161.1954619604311</v>
       </c>
       <c r="K30" t="n">
-        <v>352.1843123979736</v>
+        <v>443.1120256400166</v>
       </c>
       <c r="L30" t="n">
-        <v>788.4993992897325</v>
+        <v>879.4271125317755</v>
       </c>
       <c r="M30" t="n">
-        <v>1355.795040937709</v>
+        <v>1446.722754179752</v>
       </c>
       <c r="N30" t="n">
-        <v>1951.50021318651</v>
+        <v>1513.148446029987</v>
       </c>
       <c r="O30" t="n">
-        <v>2181.808688164032</v>
+        <v>1982.594066618683</v>
       </c>
       <c r="P30" t="n">
-        <v>2545.901067556423</v>
+        <v>2346.686446011073</v>
       </c>
       <c r="Q30" t="n">
         <v>2545.901067556423</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>444.7374632107158</v>
+        <v>444.7374632107156</v>
       </c>
       <c r="C31" t="n">
-        <v>377.1364680564829</v>
+        <v>377.1364680564828</v>
       </c>
       <c r="D31" t="n">
-        <v>326.0795492683325</v>
+        <v>326.0795492683324</v>
       </c>
       <c r="E31" t="n">
-        <v>276.0855094137382</v>
+        <v>276.0855094137381</v>
       </c>
       <c r="F31" t="n">
-        <v>225.6198288236022</v>
+        <v>225.6198288236021</v>
       </c>
       <c r="G31" t="n">
         <v>158.9927679170312</v>
@@ -6616,7 +6616,7 @@
         <v>104.1042211529313</v>
       </c>
       <c r="I31" t="n">
-        <v>70.26774871838821</v>
+        <v>70.26774871838822</v>
       </c>
       <c r="J31" t="n">
         <v>130.6341355862126</v>
@@ -6625,13 +6625,13 @@
         <v>295.8463623777436</v>
       </c>
       <c r="L31" t="n">
-        <v>536.905078893903</v>
+        <v>536.9050788939031</v>
       </c>
       <c r="M31" t="n">
-        <v>797.5499867382307</v>
+        <v>797.54998673823</v>
       </c>
       <c r="N31" t="n">
-        <v>1057.609215596752</v>
+        <v>1057.609215596751</v>
       </c>
       <c r="O31" t="n">
         <v>1294.530111954949</v>
@@ -6646,25 +6646,25 @@
         <v>1540.389793439635</v>
       </c>
       <c r="S31" t="n">
-        <v>1433.534791369596</v>
+        <v>1433.534791369595</v>
       </c>
       <c r="T31" t="n">
         <v>1303.557405937555</v>
       </c>
       <c r="U31" t="n">
-        <v>1118.397288811187</v>
+        <v>1118.397288811186</v>
       </c>
       <c r="V31" t="n">
-        <v>959.6769587536966</v>
+        <v>959.6769587536959</v>
       </c>
       <c r="W31" t="n">
-        <v>775.5355316551826</v>
+        <v>775.5355316551819</v>
       </c>
       <c r="X31" t="n">
-        <v>646.2980419346452</v>
+        <v>646.2980419346445</v>
       </c>
       <c r="Y31" t="n">
-        <v>526.2778575110087</v>
+        <v>526.2778575110085</v>
       </c>
     </row>
     <row r="32">
@@ -6683,49 +6683,49 @@
         <v>1260.04422663446</v>
       </c>
       <c r="E32" t="n">
-        <v>967.2734811246532</v>
+        <v>967.2734811246538</v>
       </c>
       <c r="F32" t="n">
-        <v>655.1372648189104</v>
+        <v>655.137264818911</v>
       </c>
       <c r="G32" t="n">
-        <v>341.6673669132301</v>
+        <v>341.6673669132305</v>
       </c>
       <c r="H32" t="n">
-        <v>117.201570769344</v>
+        <v>117.2015707693439</v>
       </c>
       <c r="I32" t="n">
-        <v>70.26774871838821</v>
+        <v>70.26774871838822</v>
       </c>
       <c r="J32" t="n">
-        <v>293.7520416570866</v>
+        <v>193.7671652632432</v>
       </c>
       <c r="K32" t="n">
-        <v>611.0788710137672</v>
+        <v>611.0788710137673</v>
       </c>
       <c r="L32" t="n">
-        <v>1095.18996630289</v>
+        <v>1154.705746081404</v>
       </c>
       <c r="M32" t="n">
-        <v>1694.961705243899</v>
+        <v>1754.477485022413</v>
       </c>
       <c r="N32" t="n">
-        <v>2281.549689737761</v>
+        <v>2341.065469516276</v>
       </c>
       <c r="O32" t="n">
-        <v>2788.777093349129</v>
+        <v>2848.292873127644</v>
       </c>
       <c r="P32" t="n">
-        <v>3204.176584973217</v>
+        <v>3263.692364751732</v>
       </c>
       <c r="Q32" t="n">
-        <v>3464.120627916152</v>
+        <v>3513.387435919411</v>
       </c>
       <c r="R32" t="n">
-        <v>3513.38743591941</v>
+        <v>3513.387435919411</v>
       </c>
       <c r="S32" t="n">
-        <v>3442.281501043468</v>
+        <v>3442.281501043469</v>
       </c>
       <c r="T32" t="n">
         <v>3322.647701814402</v>
@@ -6771,31 +6771,31 @@
         <v>223.9835994550913</v>
       </c>
       <c r="H33" t="n">
-        <v>127.2449711146461</v>
+        <v>127.2449711146462</v>
       </c>
       <c r="I33" t="n">
-        <v>70.26774871838821</v>
+        <v>70.26774871838822</v>
       </c>
       <c r="J33" t="n">
-        <v>70.26774871838821</v>
+        <v>70.26774871838822</v>
       </c>
       <c r="K33" t="n">
-        <v>70.26774871838821</v>
+        <v>113.0471667868008</v>
       </c>
       <c r="L33" t="n">
-        <v>506.5828356101471</v>
+        <v>549.3622536785597</v>
       </c>
       <c r="M33" t="n">
-        <v>1073.878477258124</v>
+        <v>1116.657895326536</v>
       </c>
       <c r="N33" t="n">
-        <v>1669.583649506925</v>
+        <v>1712.363067575337</v>
       </c>
       <c r="O33" t="n">
-        <v>2139.02927009562</v>
+        <v>2181.808688164032</v>
       </c>
       <c r="P33" t="n">
-        <v>2503.121649488011</v>
+        <v>2545.901067556423</v>
       </c>
       <c r="Q33" t="n">
         <v>2545.901067556423</v>
@@ -6832,10 +6832,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>444.7374632107162</v>
+        <v>444.7374632107159</v>
       </c>
       <c r="C34" t="n">
-        <v>377.1364680564833</v>
+        <v>377.1364680564831</v>
       </c>
       <c r="D34" t="n">
         <v>326.0795492683328</v>
@@ -6844,64 +6844,64 @@
         <v>276.0855094137385</v>
       </c>
       <c r="F34" t="n">
-        <v>225.6198288236024</v>
+        <v>225.6198288236025</v>
       </c>
       <c r="G34" t="n">
-        <v>158.9927679170314</v>
+        <v>158.9927679170315</v>
       </c>
       <c r="H34" t="n">
-        <v>104.1042211529314</v>
+        <v>104.1042211529313</v>
       </c>
       <c r="I34" t="n">
-        <v>70.26774871838821</v>
+        <v>70.26774871838822</v>
       </c>
       <c r="J34" t="n">
         <v>130.6341355862126</v>
       </c>
       <c r="K34" t="n">
-        <v>295.8463623777434</v>
+        <v>295.8463623777436</v>
       </c>
       <c r="L34" t="n">
-        <v>536.9050788939029</v>
+        <v>536.9050788939031</v>
       </c>
       <c r="M34" t="n">
-        <v>797.5499867382318</v>
+        <v>797.5499867382305</v>
       </c>
       <c r="N34" t="n">
-        <v>1057.609215596753</v>
+        <v>1057.609215596752</v>
       </c>
       <c r="O34" t="n">
-        <v>1294.53011195495</v>
+        <v>1294.530111954949</v>
       </c>
       <c r="P34" t="n">
-        <v>1490.403233887268</v>
+        <v>1490.403233887267</v>
       </c>
       <c r="Q34" t="n">
-        <v>1575.409598740987</v>
+        <v>1575.409598740986</v>
       </c>
       <c r="R34" t="n">
-        <v>1540.389793439636</v>
+        <v>1540.389793439635</v>
       </c>
       <c r="S34" t="n">
-        <v>1433.534791369596</v>
+        <v>1433.534791369595</v>
       </c>
       <c r="T34" t="n">
-        <v>1303.557405937556</v>
+        <v>1303.557405937555</v>
       </c>
       <c r="U34" t="n">
         <v>1118.397288811187</v>
       </c>
       <c r="V34" t="n">
-        <v>959.6769587536968</v>
+        <v>959.6769587536963</v>
       </c>
       <c r="W34" t="n">
-        <v>775.5355316551827</v>
+        <v>775.5355316551824</v>
       </c>
       <c r="X34" t="n">
-        <v>646.2980419346453</v>
+        <v>646.2980419346449</v>
       </c>
       <c r="Y34" t="n">
-        <v>526.2778575110092</v>
+        <v>526.2778575110088</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1262.71490395099</v>
+        <v>1262.714903950989</v>
       </c>
       <c r="C35" t="n">
-        <v>1062.395470589657</v>
+        <v>1062.395470589656</v>
       </c>
       <c r="D35" t="n">
-        <v>871.1858311227406</v>
+        <v>871.1858311227397</v>
       </c>
       <c r="E35" t="n">
-        <v>658.0144365347071</v>
+        <v>658.0144365347064</v>
       </c>
       <c r="F35" t="n">
-        <v>425.477571150737</v>
+        <v>425.4775711507366</v>
       </c>
       <c r="G35" t="n">
-        <v>191.6070241668297</v>
+        <v>191.6070241668295</v>
       </c>
       <c r="H35" t="n">
-        <v>46.74057894471588</v>
+        <v>46.74057894471584</v>
       </c>
       <c r="I35" t="n">
-        <v>46.74057894471588</v>
+        <v>46.74057894471584</v>
       </c>
       <c r="J35" t="n">
-        <v>46.74057894471588</v>
+        <v>170.2399954895708</v>
       </c>
       <c r="K35" t="n">
-        <v>339.7952841481996</v>
+        <v>487.5668248462514</v>
       </c>
       <c r="L35" t="n">
-        <v>783.437282821993</v>
+        <v>931.2088235200448</v>
       </c>
       <c r="M35" t="n">
-        <v>1283.224145369159</v>
+        <v>1430.99568606721</v>
       </c>
       <c r="N35" t="n">
-        <v>1769.827253469177</v>
+        <v>1917.598794167229</v>
       </c>
       <c r="O35" t="n">
-        <v>2177.069780686702</v>
+        <v>2324.841321384754</v>
       </c>
       <c r="P35" t="n">
-        <v>2177.069780686702</v>
+        <v>2337.028947235792</v>
       </c>
       <c r="Q35" t="n">
-        <v>2337.028947235794</v>
+        <v>2337.028947235792</v>
       </c>
       <c r="R35" t="n">
-        <v>2337.028947235794</v>
+        <v>2337.028947235792</v>
       </c>
       <c r="S35" t="n">
-        <v>2337.028947235794</v>
+        <v>2337.028947235792</v>
       </c>
       <c r="T35" t="n">
-        <v>2296.9944989285</v>
+        <v>2296.994498928498</v>
       </c>
       <c r="U35" t="n">
-        <v>2223.773017088838</v>
+        <v>2223.773017088835</v>
       </c>
       <c r="V35" t="n">
-        <v>2068.408068290639</v>
+        <v>2068.408068290636</v>
       </c>
       <c r="W35" t="n">
-        <v>1887.487463454099</v>
+        <v>1887.487463454097</v>
       </c>
       <c r="X35" t="n">
-        <v>1687.071648281452</v>
+        <v>1687.07164828145</v>
       </c>
       <c r="Y35" t="n">
-        <v>1475.14411816315</v>
+        <v>1475.144118163148</v>
       </c>
     </row>
     <row r="36">
@@ -6990,16 +6990,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>911.1177920897356</v>
+        <v>725.7728415427773</v>
       </c>
       <c r="C36" t="n">
-        <v>749.4141193306904</v>
+        <v>564.069168783732</v>
       </c>
       <c r="D36" t="n">
-        <v>610.5754823209024</v>
+        <v>425.2305317739441</v>
       </c>
       <c r="E36" t="n">
-        <v>463.5474723777736</v>
+        <v>328.8536743276479</v>
       </c>
       <c r="F36" t="n">
         <v>328.8536743276479</v>
@@ -7011,7 +7011,7 @@
         <v>103.7178013409738</v>
       </c>
       <c r="I36" t="n">
-        <v>46.74057894471588</v>
+        <v>46.74057894471584</v>
       </c>
       <c r="J36" t="n">
         <v>137.6682921867588</v>
@@ -7020,46 +7020,46 @@
         <v>419.5848558663442</v>
       </c>
       <c r="L36" t="n">
-        <v>419.5848558663442</v>
+        <v>855.8999427581031</v>
       </c>
       <c r="M36" t="n">
-        <v>986.880497514321</v>
+        <v>855.8999427581031</v>
       </c>
       <c r="N36" t="n">
-        <v>1304.276325709358</v>
+        <v>1304.276325709356</v>
       </c>
       <c r="O36" t="n">
-        <v>1773.721946298054</v>
+        <v>1773.721946298052</v>
       </c>
       <c r="P36" t="n">
-        <v>2137.814325690444</v>
+        <v>2137.814325690442</v>
       </c>
       <c r="Q36" t="n">
-        <v>2337.028947235794</v>
+        <v>2337.028947235792</v>
       </c>
       <c r="R36" t="n">
-        <v>2297.811566306035</v>
+        <v>2297.811566306033</v>
       </c>
       <c r="S36" t="n">
-        <v>2151.165001795137</v>
+        <v>2151.165001795136</v>
       </c>
       <c r="T36" t="n">
-        <v>2145.429414708724</v>
+        <v>1963.815089402863</v>
       </c>
       <c r="U36" t="n">
-        <v>1930.687040661979</v>
+        <v>1745.342090115021</v>
       </c>
       <c r="V36" t="n">
-        <v>1702.291418110313</v>
+        <v>1516.946467563355</v>
       </c>
       <c r="W36" t="n">
-        <v>1460.975549343623</v>
+        <v>1275.630598796665</v>
       </c>
       <c r="X36" t="n">
-        <v>1263.058561221418</v>
+        <v>1077.713610674459</v>
       </c>
       <c r="Y36" t="n">
-        <v>1070.537234870997</v>
+        <v>885.1922843240383</v>
       </c>
     </row>
     <row r="37">
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.74057894471588</v>
+        <v>46.74057894471584</v>
       </c>
       <c r="C37" t="n">
-        <v>46.74057894471588</v>
+        <v>46.74057894471584</v>
       </c>
       <c r="D37" t="n">
-        <v>46.74057894471588</v>
+        <v>46.74057894471584</v>
       </c>
       <c r="E37" t="n">
-        <v>46.74057894471588</v>
+        <v>46.74057894471584</v>
       </c>
       <c r="F37" t="n">
-        <v>46.74057894471588</v>
+        <v>46.74057894471584</v>
       </c>
       <c r="G37" t="n">
-        <v>46.74057894471588</v>
+        <v>46.74057894471584</v>
       </c>
       <c r="H37" t="n">
-        <v>46.74057894471588</v>
+        <v>46.74057894471584</v>
       </c>
       <c r="I37" t="n">
-        <v>46.74057894471588</v>
+        <v>46.74057894471584</v>
       </c>
       <c r="J37" t="n">
-        <v>46.74057894471588</v>
+        <v>46.74057894471584</v>
       </c>
       <c r="K37" t="n">
         <v>111.9679293424033</v>
@@ -7105,7 +7105,7 @@
         <v>413.7018009152035</v>
       </c>
       <c r="N37" t="n">
-        <v>573.7761533798814</v>
+        <v>573.7761533798813</v>
       </c>
       <c r="O37" t="n">
         <v>710.7121733442352</v>
@@ -7114,31 +7114,31 @@
         <v>806.6004188827093</v>
       </c>
       <c r="Q37" t="n">
-        <v>806.6004188827093</v>
+        <v>791.3177828862555</v>
       </c>
       <c r="R37" t="n">
-        <v>806.6004188827093</v>
+        <v>791.3177828862555</v>
       </c>
       <c r="S37" t="n">
-        <v>779.3447677344425</v>
+        <v>764.0621317379889</v>
       </c>
       <c r="T37" t="n">
-        <v>609.5787414467782</v>
+        <v>713.6840972277213</v>
       </c>
       <c r="U37" t="n">
-        <v>504.0179752421827</v>
+        <v>608.123331023126</v>
       </c>
       <c r="V37" t="n">
-        <v>424.8969961064649</v>
+        <v>529.0023518874084</v>
       </c>
       <c r="W37" t="n">
-        <v>320.3549199297237</v>
+        <v>424.4602757106672</v>
       </c>
       <c r="X37" t="n">
-        <v>89.10245582509941</v>
+        <v>270.7167811309588</v>
       </c>
       <c r="Y37" t="n">
-        <v>48.68162232323611</v>
+        <v>48.6816223232359</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1262.71490395099</v>
+        <v>1262.714903950991</v>
       </c>
       <c r="C38" t="n">
-        <v>1062.395470589657</v>
+        <v>1062.395470589658</v>
       </c>
       <c r="D38" t="n">
-        <v>871.1858311227404</v>
+        <v>871.1858311227414</v>
       </c>
       <c r="E38" t="n">
-        <v>658.014436534707</v>
+        <v>658.014436534708</v>
       </c>
       <c r="F38" t="n">
-        <v>425.477571150737</v>
+        <v>425.4775711507381</v>
       </c>
       <c r="G38" t="n">
         <v>191.6070241668296</v>
@@ -7178,19 +7178,19 @@
         <v>46.74057894471588</v>
       </c>
       <c r="L38" t="n">
-        <v>468.0226675917484</v>
+        <v>490.3825776185093</v>
       </c>
       <c r="M38" t="n">
-        <v>967.8095301389139</v>
+        <v>990.1694401656748</v>
       </c>
       <c r="N38" t="n">
-        <v>1454.412638238932</v>
+        <v>1476.772548265693</v>
       </c>
       <c r="O38" t="n">
-        <v>1861.655165456458</v>
+        <v>1884.015075483219</v>
       </c>
       <c r="P38" t="n">
-        <v>2177.069780686702</v>
+        <v>2199.429690713463</v>
       </c>
       <c r="Q38" t="n">
         <v>2337.028947235794</v>
@@ -7205,19 +7205,19 @@
         <v>2296.9944989285</v>
       </c>
       <c r="U38" t="n">
-        <v>2223.773017088837</v>
+        <v>2223.773017088838</v>
       </c>
       <c r="V38" t="n">
-        <v>2068.408068290638</v>
+        <v>2068.408068290639</v>
       </c>
       <c r="W38" t="n">
         <v>1887.487463454099</v>
       </c>
       <c r="X38" t="n">
-        <v>1687.071648281452</v>
+        <v>1687.071648281453</v>
       </c>
       <c r="Y38" t="n">
-        <v>1475.144118163149</v>
+        <v>1475.14411816315</v>
       </c>
     </row>
     <row r="39">
@@ -7260,28 +7260,28 @@
         <v>855.8999427581032</v>
       </c>
       <c r="M39" t="n">
-        <v>1304.276325709358</v>
+        <v>1423.19558440608</v>
       </c>
       <c r="N39" t="n">
-        <v>1304.276325709358</v>
+        <v>1503.490947254708</v>
       </c>
       <c r="O39" t="n">
-        <v>1773.721946298054</v>
+        <v>1972.936567843404</v>
       </c>
       <c r="P39" t="n">
-        <v>2137.814325690444</v>
+        <v>2337.028947235794</v>
       </c>
       <c r="Q39" t="n">
         <v>2337.028947235794</v>
       </c>
       <c r="R39" t="n">
-        <v>2337.028947235794</v>
+        <v>2297.811566306035</v>
       </c>
       <c r="S39" t="n">
-        <v>2190.382382724896</v>
+        <v>2297.811566306035</v>
       </c>
       <c r="T39" t="n">
-        <v>2003.032470332623</v>
+        <v>2149.160039949821</v>
       </c>
       <c r="U39" t="n">
         <v>1930.687040661979</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.74057894471588</v>
+        <v>199.2212339189388</v>
       </c>
       <c r="C40" t="n">
-        <v>46.74057894471588</v>
+        <v>199.2212339189388</v>
       </c>
       <c r="D40" t="n">
-        <v>46.74057894471588</v>
+        <v>199.2212339189388</v>
       </c>
       <c r="E40" t="n">
-        <v>46.74057894471588</v>
+        <v>199.2212339189388</v>
       </c>
       <c r="F40" t="n">
         <v>46.74057894471588</v>
@@ -7351,31 +7351,31 @@
         <v>806.6004188827093</v>
       </c>
       <c r="Q40" t="n">
-        <v>791.3177828862555</v>
+        <v>806.6004188827093</v>
       </c>
       <c r="R40" t="n">
-        <v>791.3177828862555</v>
+        <v>806.6004188827093</v>
       </c>
       <c r="S40" t="n">
-        <v>582.4478064321291</v>
+        <v>779.3447677344427</v>
       </c>
       <c r="T40" t="n">
-        <v>532.0697719218615</v>
+        <v>728.9667332241751</v>
       </c>
       <c r="U40" t="n">
-        <v>322.4036499363226</v>
+        <v>623.4059670195797</v>
       </c>
       <c r="V40" t="n">
-        <v>243.2826708006049</v>
+        <v>544.2849878838622</v>
       </c>
       <c r="W40" t="n">
-        <v>138.7405946238637</v>
+        <v>439.742911707121</v>
       </c>
       <c r="X40" t="n">
-        <v>89.10245582509918</v>
+        <v>241.583110799322</v>
       </c>
       <c r="Y40" t="n">
-        <v>48.68162232323599</v>
+        <v>201.1622772974588</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1265.298501174361</v>
+        <v>1265.29850117436</v>
       </c>
       <c r="C41" t="n">
-        <v>1064.566702132425</v>
+        <v>1064.566702132424</v>
       </c>
       <c r="D41" t="n">
-        <v>872.9446969849057</v>
+        <v>872.9446969849042</v>
       </c>
       <c r="E41" t="n">
-        <v>659.360936716269</v>
+        <v>659.3609367162678</v>
       </c>
       <c r="F41" t="n">
-        <v>426.411705651696</v>
+        <v>426.411705651695</v>
       </c>
       <c r="G41" t="n">
-        <v>192.1287929871845</v>
+        <v>192.1287929871844</v>
       </c>
       <c r="H41" t="n">
-        <v>46.8499820844677</v>
+        <v>46.84998208446768</v>
       </c>
       <c r="I41" t="n">
-        <v>46.8499820844677</v>
+        <v>46.84998208446768</v>
       </c>
       <c r="J41" t="n">
         <v>170.3493986293226</v>
@@ -7421,40 +7421,40 @@
         <v>1431.105089206962</v>
       </c>
       <c r="N41" t="n">
-        <v>1917.708197306981</v>
+        <v>1459.882795226522</v>
       </c>
       <c r="O41" t="n">
-        <v>1917.708197306981</v>
+        <v>1867.125322444047</v>
       </c>
       <c r="P41" t="n">
-        <v>2182.539937674293</v>
+        <v>2182.539937674292</v>
       </c>
       <c r="Q41" t="n">
-        <v>2342.499104223385</v>
+        <v>2342.499104223384</v>
       </c>
       <c r="R41" t="n">
-        <v>2342.499104223385</v>
+        <v>2342.499104223384</v>
       </c>
       <c r="S41" t="n">
-        <v>2342.499104223385</v>
+        <v>2342.499104223384</v>
       </c>
       <c r="T41" t="n">
-        <v>2302.052290235489</v>
+        <v>2302.052290235487</v>
       </c>
       <c r="U41" t="n">
-        <v>2228.418442715223</v>
+        <v>2228.418442715221</v>
       </c>
       <c r="V41" t="n">
-        <v>2072.641128236422</v>
+        <v>2072.641128236419</v>
       </c>
       <c r="W41" t="n">
-        <v>1891.308157719279</v>
+        <v>1891.308157719277</v>
       </c>
       <c r="X41" t="n">
-        <v>1690.479976866029</v>
+        <v>1690.479976866027</v>
       </c>
       <c r="Y41" t="n">
-        <v>1478.140081067123</v>
+        <v>1478.140081067122</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>854.2499728332294</v>
+        <v>731.2429985303688</v>
       </c>
       <c r="C42" t="n">
-        <v>692.5463000741842</v>
+        <v>569.5393257713235</v>
       </c>
       <c r="D42" t="n">
-        <v>553.7076630643962</v>
+        <v>430.7006887615356</v>
       </c>
       <c r="E42" t="n">
-        <v>406.6796531212674</v>
+        <v>283.6726788184068</v>
       </c>
       <c r="F42" t="n">
-        <v>271.9858550711418</v>
+        <v>148.9788807682812</v>
       </c>
       <c r="G42" t="n">
-        <v>143.5886104249129</v>
+        <v>46.84998208446768</v>
       </c>
       <c r="H42" t="n">
-        <v>46.8499820844677</v>
+        <v>46.84998208446768</v>
       </c>
       <c r="I42" t="n">
-        <v>46.8499820844677</v>
+        <v>46.84998208446768</v>
       </c>
       <c r="J42" t="n">
-        <v>46.8499820844677</v>
+        <v>137.7776953265106</v>
       </c>
       <c r="K42" t="n">
-        <v>46.8499820844677</v>
+        <v>419.694259006096</v>
       </c>
       <c r="L42" t="n">
-        <v>483.1650689762266</v>
+        <v>856.0093458978549</v>
       </c>
       <c r="M42" t="n">
-        <v>729.9779544016615</v>
+        <v>1423.304987545832</v>
       </c>
       <c r="N42" t="n">
-        <v>1309.746482696949</v>
+        <v>1779.192103285643</v>
       </c>
       <c r="O42" t="n">
-        <v>1779.192103285645</v>
+        <v>1779.192103285643</v>
       </c>
       <c r="P42" t="n">
-        <v>2143.284482678035</v>
+        <v>2143.284482678034</v>
       </c>
       <c r="Q42" t="n">
-        <v>2342.499104223385</v>
+        <v>2342.499104223384</v>
       </c>
       <c r="R42" t="n">
-        <v>2303.281723293626</v>
+        <v>2303.281723293625</v>
       </c>
       <c r="S42" t="n">
-        <v>2156.635158782728</v>
+        <v>2156.635158782727</v>
       </c>
       <c r="T42" t="n">
-        <v>1969.285246390456</v>
+        <v>1969.285246390454</v>
       </c>
       <c r="U42" t="n">
-        <v>1873.819221405473</v>
+        <v>1750.812247102612</v>
       </c>
       <c r="V42" t="n">
-        <v>1645.423598853807</v>
+        <v>1522.416624550946</v>
       </c>
       <c r="W42" t="n">
-        <v>1404.107730087117</v>
+        <v>1281.100755784256</v>
       </c>
       <c r="X42" t="n">
-        <v>1206.190741964911</v>
+        <v>1083.183767662051</v>
       </c>
       <c r="Y42" t="n">
-        <v>1013.66941561449</v>
+        <v>890.6624413116298</v>
       </c>
     </row>
     <row r="43">
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.8499820844677</v>
+        <v>199.3306370586906</v>
       </c>
       <c r="C43" t="n">
-        <v>46.8499820844677</v>
+        <v>199.3306370586906</v>
       </c>
       <c r="D43" t="n">
-        <v>46.8499820844677</v>
+        <v>199.3306370586906</v>
       </c>
       <c r="E43" t="n">
-        <v>46.8499820844677</v>
+        <v>199.3306370586906</v>
       </c>
       <c r="F43" t="n">
-        <v>46.8499820844677</v>
+        <v>46.84998208446768</v>
       </c>
       <c r="G43" t="n">
-        <v>46.8499820844677</v>
+        <v>46.84998208446768</v>
       </c>
       <c r="H43" t="n">
-        <v>46.8499820844677</v>
+        <v>46.84998208446768</v>
       </c>
       <c r="I43" t="n">
-        <v>46.8499820844677</v>
+        <v>46.84998208446768</v>
       </c>
       <c r="J43" t="n">
-        <v>46.8499820844677</v>
+        <v>46.84998208446768</v>
       </c>
       <c r="K43" t="n">
         <v>112.0773324821551</v>
@@ -7588,31 +7588,31 @@
         <v>806.709822022461</v>
       </c>
       <c r="Q43" t="n">
-        <v>806.709822022461</v>
+        <v>791.4271860260072</v>
       </c>
       <c r="R43" t="n">
-        <v>806.709822022461</v>
+        <v>791.4271860260072</v>
       </c>
       <c r="S43" t="n">
-        <v>779.0418051935915</v>
+        <v>763.7591691971377</v>
       </c>
       <c r="T43" t="n">
-        <v>728.2514050027208</v>
+        <v>712.9687690062671</v>
       </c>
       <c r="U43" t="n">
-        <v>622.2782731175225</v>
+        <v>606.9956371210687</v>
       </c>
       <c r="V43" t="n">
-        <v>542.7449283012019</v>
+        <v>527.4622923047482</v>
       </c>
       <c r="W43" t="n">
-        <v>256.588526818601</v>
+        <v>422.5078504474041</v>
       </c>
       <c r="X43" t="n">
-        <v>206.5380223392335</v>
+        <v>372.4573459680366</v>
       </c>
       <c r="Y43" t="n">
-        <v>49.20339114359081</v>
+        <v>331.6241467855705</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1265.298501174361</v>
+        <v>1265.29850117436</v>
       </c>
       <c r="C44" t="n">
-        <v>1064.566702132425</v>
+        <v>1064.566702132424</v>
       </c>
       <c r="D44" t="n">
-        <v>872.9446969849059</v>
+        <v>872.9446969849046</v>
       </c>
       <c r="E44" t="n">
-        <v>659.3609367162693</v>
+        <v>659.360936716268</v>
       </c>
       <c r="F44" t="n">
-        <v>426.4117056516964</v>
+        <v>426.4117056516951</v>
       </c>
       <c r="G44" t="n">
-        <v>192.1287929871845</v>
+        <v>192.1287929871844</v>
       </c>
       <c r="H44" t="n">
-        <v>46.8499820844677</v>
+        <v>46.84998208446768</v>
       </c>
       <c r="I44" t="n">
-        <v>46.8499820844677</v>
+        <v>46.84998208446768</v>
       </c>
       <c r="J44" t="n">
-        <v>170.3493986293226</v>
+        <v>46.84998208446768</v>
       </c>
       <c r="K44" t="n">
-        <v>487.6762279860033</v>
+        <v>364.1768114411483</v>
       </c>
       <c r="L44" t="n">
-        <v>931.3182266597967</v>
+        <v>807.8188101149417</v>
       </c>
       <c r="M44" t="n">
-        <v>973.279687126505</v>
+        <v>1307.605672662107</v>
       </c>
       <c r="N44" t="n">
-        <v>1459.882795226524</v>
+        <v>1459.882795226522</v>
       </c>
       <c r="O44" t="n">
-        <v>1867.125322444049</v>
+        <v>1867.125322444047</v>
       </c>
       <c r="P44" t="n">
-        <v>2182.539937674293</v>
+        <v>2182.539937674292</v>
       </c>
       <c r="Q44" t="n">
-        <v>2342.499104223385</v>
+        <v>2342.499104223384</v>
       </c>
       <c r="R44" t="n">
-        <v>2342.499104223385</v>
+        <v>2342.499104223384</v>
       </c>
       <c r="S44" t="n">
-        <v>2342.499104223385</v>
+        <v>2342.499104223384</v>
       </c>
       <c r="T44" t="n">
-        <v>2302.052290235488</v>
+        <v>2302.052290235487</v>
       </c>
       <c r="U44" t="n">
-        <v>2228.418442715223</v>
+        <v>2228.418442715222</v>
       </c>
       <c r="V44" t="n">
-        <v>2072.641128236421</v>
+        <v>2072.64112823642</v>
       </c>
       <c r="W44" t="n">
-        <v>1891.308157719279</v>
+        <v>1891.308157719277</v>
       </c>
       <c r="X44" t="n">
-        <v>1690.479976866029</v>
+        <v>1690.479976866028</v>
       </c>
       <c r="Y44" t="n">
-        <v>1478.140081067124</v>
+        <v>1478.140081067122</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>911.2271952294874</v>
+        <v>731.2429985303688</v>
       </c>
       <c r="C45" t="n">
-        <v>749.5235224704421</v>
+        <v>569.5393257713235</v>
       </c>
       <c r="D45" t="n">
-        <v>610.6848854606542</v>
+        <v>430.7006887615356</v>
       </c>
       <c r="E45" t="n">
-        <v>463.6568755175254</v>
+        <v>283.6726788184068</v>
       </c>
       <c r="F45" t="n">
-        <v>328.9630774673997</v>
+        <v>148.9788807682812</v>
       </c>
       <c r="G45" t="n">
-        <v>200.5658328211708</v>
+        <v>103.8272044807256</v>
       </c>
       <c r="H45" t="n">
         <v>103.8272044807256</v>
       </c>
       <c r="I45" t="n">
-        <v>46.8499820844677</v>
+        <v>46.84998208446768</v>
       </c>
       <c r="J45" t="n">
-        <v>46.8499820844677</v>
+        <v>137.7776953265106</v>
       </c>
       <c r="K45" t="n">
-        <v>328.7665457640531</v>
+        <v>419.694259006096</v>
       </c>
       <c r="L45" t="n">
-        <v>765.081632655812</v>
+        <v>856.0093458978549</v>
       </c>
       <c r="M45" t="n">
-        <v>1332.377274303789</v>
+        <v>856.0093458978549</v>
       </c>
       <c r="N45" t="n">
-        <v>1873.05348363469</v>
+        <v>1435.777874193142</v>
       </c>
       <c r="O45" t="n">
-        <v>2342.499104223385</v>
+        <v>1779.192103285643</v>
       </c>
       <c r="P45" t="n">
-        <v>2342.499104223385</v>
+        <v>2143.284482678034</v>
       </c>
       <c r="Q45" t="n">
-        <v>2342.499104223385</v>
+        <v>2342.499104223384</v>
       </c>
       <c r="R45" t="n">
-        <v>2342.499104223385</v>
+        <v>2303.281723293625</v>
       </c>
       <c r="S45" t="n">
-        <v>2195.852539712487</v>
+        <v>2156.635158782727</v>
       </c>
       <c r="T45" t="n">
-        <v>2149.269443089573</v>
+        <v>1969.285246390454</v>
       </c>
       <c r="U45" t="n">
-        <v>1930.796443801731</v>
+        <v>1750.812247102612</v>
       </c>
       <c r="V45" t="n">
-        <v>1702.400821250065</v>
+        <v>1522.416624550946</v>
       </c>
       <c r="W45" t="n">
-        <v>1461.084952483375</v>
+        <v>1281.100755784256</v>
       </c>
       <c r="X45" t="n">
-        <v>1263.167964361169</v>
+        <v>1083.183767662051</v>
       </c>
       <c r="Y45" t="n">
-        <v>1070.646638010748</v>
+        <v>890.6624413116298</v>
       </c>
     </row>
     <row r="46">
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.8499820844677</v>
+        <v>216.4659516227874</v>
       </c>
       <c r="C46" t="n">
-        <v>46.8499820844677</v>
+        <v>46.84998208446768</v>
       </c>
       <c r="D46" t="n">
-        <v>46.8499820844677</v>
+        <v>46.84998208446768</v>
       </c>
       <c r="E46" t="n">
-        <v>46.8499820844677</v>
+        <v>46.84998208446768</v>
       </c>
       <c r="F46" t="n">
-        <v>46.8499820844677</v>
+        <v>46.84998208446768</v>
       </c>
       <c r="G46" t="n">
-        <v>46.8499820844677</v>
+        <v>46.84998208446768</v>
       </c>
       <c r="H46" t="n">
-        <v>46.8499820844677</v>
+        <v>46.84998208446768</v>
       </c>
       <c r="I46" t="n">
-        <v>46.8499820844677</v>
+        <v>46.84998208446768</v>
       </c>
       <c r="J46" t="n">
-        <v>46.8499820844677</v>
+        <v>46.84998208446768</v>
       </c>
       <c r="K46" t="n">
         <v>112.0773324821551</v>
@@ -7825,31 +7825,31 @@
         <v>806.709822022461</v>
       </c>
       <c r="Q46" t="n">
-        <v>806.709822022461</v>
+        <v>791.4271860260072</v>
       </c>
       <c r="R46" t="n">
-        <v>806.709822022461</v>
+        <v>791.4271860260072</v>
       </c>
       <c r="S46" t="n">
-        <v>779.0418051935915</v>
+        <v>763.7591691971377</v>
       </c>
       <c r="T46" t="n">
-        <v>547.0494453774641</v>
+        <v>712.9687690062671</v>
       </c>
       <c r="U46" t="n">
-        <v>324.5748814790893</v>
+        <v>606.9956371210687</v>
       </c>
       <c r="V46" t="n">
-        <v>245.0415366627687</v>
+        <v>527.4622923047481</v>
       </c>
       <c r="W46" t="n">
-        <v>140.0870948054245</v>
+        <v>422.5078504474039</v>
       </c>
       <c r="X46" t="n">
-        <v>90.036590326057</v>
+        <v>372.4573459680364</v>
       </c>
       <c r="Y46" t="n">
-        <v>49.20339114359081</v>
+        <v>331.6241467855702</v>
       </c>
     </row>
   </sheetData>
@@ -8690,22 +8690,22 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K11" t="n">
-        <v>100.85688547718</v>
+        <v>394.9465076480845</v>
       </c>
       <c r="L11" t="n">
-        <v>94.83634793195564</v>
+        <v>388.9259701028602</v>
       </c>
       <c r="M11" t="n">
-        <v>369.5074131067838</v>
+        <v>369.5074131067853</v>
       </c>
       <c r="N11" t="n">
-        <v>77.0327107254594</v>
+        <v>77.03271072545962</v>
       </c>
       <c r="O11" t="n">
-        <v>377.7737697139621</v>
+        <v>83.68414754305853</v>
       </c>
       <c r="P11" t="n">
-        <v>393.8273213491395</v>
+        <v>99.73769917823589</v>
       </c>
       <c r="Q11" t="n">
         <v>276.0094878578761</v>
@@ -8766,28 +8766,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>72.07217095056885</v>
+        <v>72.07217095056892</v>
       </c>
       <c r="K12" t="n">
-        <v>59.04060237939709</v>
+        <v>59.04060237939721</v>
       </c>
       <c r="L12" t="n">
-        <v>323.5773520971229</v>
+        <v>41.37013890282132</v>
       </c>
       <c r="M12" t="n">
-        <v>326.4803043913817</v>
+        <v>326.4803043913823</v>
       </c>
       <c r="N12" t="n">
-        <v>315.5123126066134</v>
+        <v>315.512312606614</v>
       </c>
       <c r="O12" t="n">
-        <v>37.8335195156114</v>
+        <v>331.9231416865159</v>
       </c>
       <c r="P12" t="n">
-        <v>340.3211412084881</v>
+        <v>328.4387322318865</v>
       </c>
       <c r="Q12" t="n">
-        <v>71.87358360675537</v>
+        <v>71.87358360675547</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -8930,22 +8930,22 @@
         <v>394.946507648084</v>
       </c>
       <c r="L14" t="n">
-        <v>388.9259701028597</v>
+        <v>384.8113821921646</v>
       </c>
       <c r="M14" t="n">
-        <v>373.6220010174794</v>
+        <v>79.5323788465756</v>
       </c>
       <c r="N14" t="n">
-        <v>234.4930385209179</v>
+        <v>77.03271072545962</v>
       </c>
       <c r="O14" t="n">
-        <v>83.68414754305853</v>
+        <v>377.7737697139623</v>
       </c>
       <c r="P14" t="n">
         <v>99.73769917823589</v>
       </c>
       <c r="Q14" t="n">
-        <v>114.4345721517227</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R14" t="n">
         <v>85.43134583487716</v>
@@ -9003,28 +9003,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>163.9183459425315</v>
+        <v>72.07217095056892</v>
       </c>
       <c r="K15" t="n">
         <v>59.04060237939721</v>
       </c>
       <c r="L15" t="n">
-        <v>41.37013890282132</v>
+        <v>335.4597610737251</v>
       </c>
       <c r="M15" t="n">
-        <v>32.39068222047803</v>
+        <v>326.4803043913818</v>
       </c>
       <c r="N15" t="n">
-        <v>304.6464603591042</v>
+        <v>21.42269043570973</v>
       </c>
       <c r="O15" t="n">
         <v>331.9231416865154</v>
       </c>
       <c r="P15" t="n">
-        <v>340.3211412084882</v>
+        <v>328.4387322318861</v>
       </c>
       <c r="Q15" t="n">
-        <v>273.1004740566038</v>
+        <v>71.87358360675547</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9164,7 +9164,7 @@
         <v>95.07871432485254</v>
       </c>
       <c r="K17" t="n">
-        <v>100.8568854771802</v>
+        <v>383.0640986714819</v>
       </c>
       <c r="L17" t="n">
         <v>388.9259701028597</v>
@@ -9173,13 +9173,13 @@
         <v>373.6220010174794</v>
       </c>
       <c r="N17" t="n">
-        <v>77.03271072545962</v>
+        <v>371.1223328963634</v>
       </c>
       <c r="O17" t="n">
-        <v>365.8913607373602</v>
+        <v>83.68414754305853</v>
       </c>
       <c r="P17" t="n">
-        <v>393.8273213491397</v>
+        <v>99.73769917823589</v>
       </c>
       <c r="Q17" t="n">
         <v>114.4345721517227</v>
@@ -9240,28 +9240,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>163.9183459425315</v>
+        <v>72.07217095056892</v>
       </c>
       <c r="K18" t="n">
-        <v>343.8048081163522</v>
+        <v>341.2478155736989</v>
       </c>
       <c r="L18" t="n">
         <v>41.37013890282132</v>
       </c>
       <c r="M18" t="n">
-        <v>32.39068222047803</v>
+        <v>326.4803043913818</v>
       </c>
       <c r="N18" t="n">
-        <v>21.42269043570973</v>
+        <v>315.5123126066135</v>
       </c>
       <c r="O18" t="n">
-        <v>330.3827058729549</v>
+        <v>331.9231416865154</v>
       </c>
       <c r="P18" t="n">
-        <v>340.3211412084882</v>
+        <v>46.23151903758444</v>
       </c>
       <c r="Q18" t="n">
-        <v>273.1004740566038</v>
+        <v>71.87358360675547</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9401,16 +9401,16 @@
         <v>95.07871432485254</v>
       </c>
       <c r="K20" t="n">
-        <v>394.946507648084</v>
+        <v>383.0640986714819</v>
       </c>
       <c r="L20" t="n">
         <v>388.9259701028597</v>
       </c>
       <c r="M20" t="n">
-        <v>361.7395920408773</v>
+        <v>79.5323788465756</v>
       </c>
       <c r="N20" t="n">
-        <v>77.03271072545962</v>
+        <v>371.1223328963634</v>
       </c>
       <c r="O20" t="n">
         <v>377.7737697139623</v>
@@ -9486,7 +9486,7 @@
         <v>335.4597610737251</v>
       </c>
       <c r="M21" t="n">
-        <v>122.6964213988801</v>
+        <v>32.39068222047803</v>
       </c>
       <c r="N21" t="n">
         <v>21.42269043570973</v>
@@ -9495,10 +9495,10 @@
         <v>331.9231416865154</v>
       </c>
       <c r="P21" t="n">
-        <v>46.23151903758444</v>
+        <v>337.7641486658349</v>
       </c>
       <c r="Q21" t="n">
-        <v>273.1004740566038</v>
+        <v>71.87358360675547</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9635,28 +9635,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>95.07871432485254</v>
+        <v>95.07871432485256</v>
       </c>
       <c r="K23" t="n">
-        <v>394.9465076480838</v>
+        <v>100.8568854771802</v>
       </c>
       <c r="L23" t="n">
-        <v>388.9259701028595</v>
+        <v>94.83634793195588</v>
       </c>
       <c r="M23" t="n">
-        <v>200.1646763347236</v>
+        <v>361.7395920408773</v>
       </c>
       <c r="N23" t="n">
-        <v>77.03271072545962</v>
+        <v>371.1223328963634</v>
       </c>
       <c r="O23" t="n">
-        <v>83.68414754305853</v>
+        <v>377.7737697139623</v>
       </c>
       <c r="P23" t="n">
-        <v>393.8273213491395</v>
+        <v>393.8273213491397</v>
       </c>
       <c r="Q23" t="n">
-        <v>276.0094878578761</v>
+        <v>114.4345721517227</v>
       </c>
       <c r="R23" t="n">
         <v>85.43134583487716</v>
@@ -9714,25 +9714,25 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>163.9183459425315</v>
+        <v>72.07217095056893</v>
       </c>
       <c r="K24" t="n">
-        <v>59.04060237939721</v>
+        <v>59.04060237939722</v>
       </c>
       <c r="L24" t="n">
-        <v>335.459761073725</v>
+        <v>41.37013890282135</v>
       </c>
       <c r="M24" t="n">
-        <v>326.4803043913817</v>
+        <v>113.3710049649315</v>
       </c>
       <c r="N24" t="n">
-        <v>304.6464603591037</v>
+        <v>315.5123126066135</v>
       </c>
       <c r="O24" t="n">
-        <v>37.83351951561156</v>
+        <v>331.9231416865154</v>
       </c>
       <c r="P24" t="n">
-        <v>46.23151903758444</v>
+        <v>340.3211412084883</v>
       </c>
       <c r="Q24" t="n">
         <v>273.1004740566038</v>
@@ -9954,7 +9954,7 @@
         <v>72.07217095056893</v>
       </c>
       <c r="K27" t="n">
-        <v>59.04060237939722</v>
+        <v>102.2521357818348</v>
       </c>
       <c r="L27" t="n">
         <v>482.0924488944969</v>
@@ -9972,7 +9972,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
-        <v>115.085117009193</v>
+        <v>71.87358360675549</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10188,7 +10188,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>72.07217095056892</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K30" t="n">
         <v>343.8048081163522</v>
@@ -10200,16 +10200,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
-        <v>623.1450866466196</v>
+        <v>88.51934887029066</v>
       </c>
       <c r="O30" t="n">
-        <v>270.4683427252303</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P30" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q30" t="n">
-        <v>71.87358360675547</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10428,7 +10428,7 @@
         <v>72.07217095056892</v>
       </c>
       <c r="K33" t="n">
-        <v>59.04060237939721</v>
+        <v>102.2521357818342</v>
       </c>
       <c r="L33" t="n">
         <v>482.0924488944969</v>
@@ -10446,7 +10446,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q33" t="n">
-        <v>115.0851170091921</v>
+        <v>71.87358360675547</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10583,10 +10583,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>95.07871432485254</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K35" t="n">
-        <v>396.8717392180728</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L35" t="n">
         <v>542.9595789155856</v>
@@ -10601,10 +10601,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P35" t="n">
-        <v>99.73769917823589</v>
+        <v>112.0484323611024</v>
       </c>
       <c r="Q35" t="n">
-        <v>276.0094878578761</v>
+        <v>114.4345721517227</v>
       </c>
       <c r="R35" t="n">
         <v>85.43134583487716</v>
@@ -10668,13 +10668,13 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L36" t="n">
-        <v>41.37013890282132</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M36" t="n">
-        <v>605.4165828749999</v>
+        <v>32.39068222047803</v>
       </c>
       <c r="N36" t="n">
-        <v>342.0245370973635</v>
+        <v>474.328127760208</v>
       </c>
       <c r="O36" t="n">
         <v>512.0210150597484</v>
@@ -10826,7 +10826,7 @@
         <v>100.8568854771802</v>
       </c>
       <c r="L38" t="n">
-        <v>520.3738112117866</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M38" t="n">
         <v>584.3675935406823</v>
@@ -10841,7 +10841,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q38" t="n">
-        <v>276.0094878578761</v>
+        <v>253.4237201540772</v>
       </c>
       <c r="R38" t="n">
         <v>85.43134583487716</v>
@@ -10908,10 +10908,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M39" t="n">
-        <v>485.296119544978</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>21.42269043570973</v>
+        <v>102.5291175555362</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
@@ -10920,7 +10920,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
-        <v>273.1004740566038</v>
+        <v>71.87358360675547</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11069,13 +11069,13 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N41" t="n">
-        <v>568.5510017355793</v>
+        <v>106.101100644207</v>
       </c>
       <c r="O41" t="n">
-        <v>83.68414754305853</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P41" t="n">
-        <v>367.2445076300669</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q41" t="n">
         <v>276.0094878578761</v>
@@ -11136,22 +11136,22 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>72.07217095056892</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K42" t="n">
-        <v>59.04060237939721</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L42" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M42" t="n">
-        <v>281.6966270946547</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>607.0474664915561</v>
+        <v>380.9046255264286</v>
       </c>
       <c r="O42" t="n">
-        <v>512.0210150597484</v>
+        <v>37.83351951561156</v>
       </c>
       <c r="P42" t="n">
         <v>414.0015992319183</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>219.8255997236959</v>
+        <v>95.07871432485254</v>
       </c>
       <c r="K44" t="n">
         <v>421.3890363425141</v>
@@ -11303,10 +11303,10 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M44" t="n">
-        <v>121.9176924493113</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N44" t="n">
-        <v>568.5510017355793</v>
+        <v>230.8479860430504</v>
       </c>
       <c r="O44" t="n">
         <v>495.0402356415689</v>
@@ -11373,7 +11373,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>72.07217095056892</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K45" t="n">
         <v>343.8048081163522</v>
@@ -11382,19 +11382,19 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M45" t="n">
-        <v>605.4165828749999</v>
+        <v>32.39068222047803</v>
       </c>
       <c r="N45" t="n">
-        <v>567.5602756184379</v>
+        <v>607.0474664915556</v>
       </c>
       <c r="O45" t="n">
-        <v>512.0210150597484</v>
+        <v>384.7165792050063</v>
       </c>
       <c r="P45" t="n">
-        <v>46.23151903758444</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
-        <v>71.87358360675547</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>218.7134039554108</v>
       </c>
       <c r="C11" t="n">
-        <v>206.7247209130925</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>197.7060249576204</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>219.448162527526</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>238.6199786155031</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>73.77937077429752</v>
+        <v>90.07653930857083</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>151.8262626552655</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23312,19 +23312,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>80.89774890663892</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>162.2197811955899</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>187.5198806735468</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>206.8201389062934</v>
       </c>
       <c r="Y11" t="n">
-        <v>218.2167367024921</v>
+        <v>218.2167367024922</v>
       </c>
     </row>
     <row r="12">
@@ -23495,22 +23495,22 @@
         <v>218.7134039554107</v>
       </c>
       <c r="C14" t="n">
-        <v>206.7247209130925</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>165.5980225371253</v>
+        <v>219.448162527526</v>
       </c>
       <c r="F14" t="n">
-        <v>238.6199786155031</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>151.8262626552655</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23549,10 +23549,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>80.89774890663892</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>162.2197811955898</v>
       </c>
       <c r="W14" t="n">
         <v>187.5198806735467</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>218.2167367024921</v>
+        <v>214.767503483193</v>
       </c>
     </row>
     <row r="15">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>882535.1217981919</v>
+        <v>882535.1217981922</v>
       </c>
     </row>
     <row r="6">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1063580.588430992</v>
+        <v>1063580.588430991</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1063580.588430992</v>
+        <v>1063580.588430991</v>
       </c>
     </row>
   </sheetData>
@@ -26317,43 +26317,43 @@
         <v>478672.8946920652</v>
       </c>
       <c r="D2" t="n">
-        <v>478672.8946920653</v>
+        <v>478672.8946920652</v>
       </c>
       <c r="E2" t="n">
         <v>418304.2488248544</v>
       </c>
       <c r="F2" t="n">
-        <v>418304.2488248541</v>
+        <v>418304.2488248543</v>
       </c>
       <c r="G2" t="n">
         <v>479765.0378088637</v>
       </c>
       <c r="H2" t="n">
+        <v>479765.0378088637</v>
+      </c>
+      <c r="I2" t="n">
         <v>479765.0378088636</v>
       </c>
-      <c r="I2" t="n">
-        <v>479765.0378088638</v>
-      </c>
       <c r="J2" t="n">
-        <v>479765.037808863</v>
+        <v>479765.0378088632</v>
       </c>
       <c r="K2" t="n">
-        <v>479765.037808863</v>
+        <v>479765.0378088637</v>
       </c>
       <c r="L2" t="n">
-        <v>479765.037808864</v>
+        <v>479765.0378088637</v>
       </c>
       <c r="M2" t="n">
-        <v>479765.0378088639</v>
+        <v>479765.0378088636</v>
       </c>
       <c r="N2" t="n">
-        <v>479765.0378088637</v>
+        <v>479765.0378088635</v>
       </c>
       <c r="O2" t="n">
-        <v>479765.0378088635</v>
+        <v>479765.0378088633</v>
       </c>
       <c r="P2" t="n">
-        <v>479765.0378088638</v>
+        <v>479765.0378088634</v>
       </c>
     </row>
     <row r="3">
@@ -26372,16 +26372,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>347410.9880429466</v>
+        <v>347410.9880429464</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>80469.26609315912</v>
+        <v>80469.26609315917</v>
       </c>
       <c r="H3" t="n">
-        <v>9.094947017729282e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,19 +26390,19 @@
         <v>153193.9940866782</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>5.5409215677243e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>80469.26609315907</v>
+        <v>80469.26609315917</v>
       </c>
       <c r="M3" t="n">
-        <v>63042.68593004415</v>
+        <v>63042.68593004413</v>
       </c>
       <c r="N3" t="n">
-        <v>9.094947017729282e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>329.0996873051937</v>
+        <v>329.0996873051116</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,28 +26424,28 @@
         <v>424293.6514672661</v>
       </c>
       <c r="E4" t="n">
+        <v>312560.3075442407</v>
+      </c>
+      <c r="F4" t="n">
         <v>312560.3075442406</v>
       </c>
-      <c r="F4" t="n">
-        <v>312560.3075442407</v>
-      </c>
       <c r="G4" t="n">
+        <v>368687.9792090665</v>
+      </c>
+      <c r="H4" t="n">
         <v>368687.9792090664</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>368687.9792090665</v>
-      </c>
-      <c r="I4" t="n">
-        <v>368687.9792090664</v>
       </c>
       <c r="J4" t="n">
         <v>358899.8032199903</v>
       </c>
       <c r="K4" t="n">
-        <v>358899.8032199902</v>
+        <v>358899.8032199903</v>
       </c>
       <c r="L4" t="n">
-        <v>358899.8032199902</v>
+        <v>358899.8032199903</v>
       </c>
       <c r="M4" t="n">
         <v>360570.8158019185</v>
@@ -26454,7 +26454,7 @@
         <v>360570.8158019185</v>
       </c>
       <c r="O4" t="n">
-        <v>360532.5601904279</v>
+        <v>360532.5601904278</v>
       </c>
       <c r="P4" t="n">
         <v>360532.5601904279</v>
@@ -26476,7 +26476,7 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>35612.93854501296</v>
+        <v>35612.93854501298</v>
       </c>
       <c r="F5" t="n">
         <v>35612.93854501295</v>
@@ -26485,7 +26485,7 @@
         <v>44069.15195899519</v>
       </c>
       <c r="H5" t="n">
-        <v>44069.1519589952</v>
+        <v>44069.15195899519</v>
       </c>
       <c r="I5" t="n">
         <v>44069.15195899519</v>
@@ -26494,22 +26494,22 @@
         <v>65217.75175230236</v>
       </c>
       <c r="K5" t="n">
-        <v>65217.75175230235</v>
+        <v>65217.75175230236</v>
       </c>
       <c r="L5" t="n">
-        <v>65217.75175230234</v>
+        <v>65217.75175230236</v>
       </c>
       <c r="M5" t="n">
-        <v>53962.02217862747</v>
+        <v>53962.02217862746</v>
       </c>
       <c r="N5" t="n">
-        <v>53962.02217862748</v>
+        <v>53962.02217862749</v>
       </c>
       <c r="O5" t="n">
-        <v>54010.84806614027</v>
+        <v>54010.84806614026</v>
       </c>
       <c r="P5" t="n">
-        <v>54010.84806614027</v>
+        <v>54010.84806614026</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20751.64322479899</v>
+        <v>20747.2746523318</v>
       </c>
       <c r="C6" t="n">
-        <v>20751.64322479905</v>
+        <v>20747.27465233186</v>
       </c>
       <c r="D6" t="n">
-        <v>20751.64322479911</v>
+        <v>20747.27465233186</v>
       </c>
       <c r="E6" t="n">
-        <v>-277279.9853073456</v>
+        <v>-277525.8284632817</v>
       </c>
       <c r="F6" t="n">
-        <v>70131.00273560047</v>
+        <v>69885.15957966479</v>
       </c>
       <c r="G6" t="n">
-        <v>-13461.35945235704</v>
+        <v>-13461.35945235715</v>
       </c>
       <c r="H6" t="n">
-        <v>67007.90664080181</v>
+        <v>67007.90664080212</v>
       </c>
       <c r="I6" t="n">
-        <v>67007.90664080223</v>
+        <v>67007.90664080194</v>
       </c>
       <c r="J6" t="n">
-        <v>-97546.51125010797</v>
+        <v>-97546.51125010762</v>
       </c>
       <c r="K6" t="n">
-        <v>55647.48283657047</v>
+        <v>55647.48283657098</v>
       </c>
       <c r="L6" t="n">
-        <v>-24821.78325658763</v>
+        <v>-24821.78325658805</v>
       </c>
       <c r="M6" t="n">
-        <v>2189.513898273777</v>
+        <v>2189.513898273442</v>
       </c>
       <c r="N6" t="n">
-        <v>65232.19982831764</v>
+        <v>65232.19982831751</v>
       </c>
       <c r="O6" t="n">
-        <v>64892.52986499008</v>
+        <v>64892.52986499015</v>
       </c>
       <c r="P6" t="n">
-        <v>65221.62955229559</v>
+        <v>65221.62955229532</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>171.3897001674282</v>
+        <v>171.3897001674281</v>
       </c>
       <c r="F2" t="n">
         <v>171.3897001674282</v>
       </c>
       <c r="G2" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838772</v>
       </c>
       <c r="H2" t="n">
-        <v>271.9762827838773</v>
+        <v>271.9762827838772</v>
       </c>
       <c r="I2" t="n">
-        <v>271.9762827838773</v>
+        <v>271.9762827838772</v>
       </c>
       <c r="J2" t="n">
         <v>100.994824640246</v>
@@ -26713,13 +26713,13 @@
         <v>100.994824640246</v>
       </c>
       <c r="L2" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="M2" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528012</v>
       </c>
       <c r="N2" t="n">
-        <v>179.7981820528011</v>
+        <v>179.7981820528012</v>
       </c>
       <c r="O2" t="n">
         <v>179.3899400290042</v>
@@ -26744,7 +26744,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>152.4646244791964</v>
+        <v>152.4646244791961</v>
       </c>
       <c r="F3" t="n">
         <v>152.4646244791961</v>
@@ -26796,7 +26796,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>294.0896221709038</v>
+        <v>294.0896221709043</v>
       </c>
       <c r="F4" t="n">
         <v>294.0896221709038</v>
@@ -26808,28 +26808,28 @@
         <v>294.0896221709038</v>
       </c>
       <c r="I4" t="n">
-        <v>294.0896221709036</v>
+        <v>294.0896221709038</v>
       </c>
       <c r="J4" t="n">
-        <v>878.3468589798528</v>
+        <v>878.3468589798526</v>
       </c>
       <c r="K4" t="n">
-        <v>878.3468589798525</v>
+        <v>878.3468589798526</v>
       </c>
       <c r="L4" t="n">
-        <v>878.3468589798525</v>
+        <v>878.3468589798526</v>
       </c>
       <c r="M4" t="n">
-        <v>584.2572368089485</v>
+        <v>584.2572368089481</v>
       </c>
       <c r="N4" t="n">
         <v>584.2572368089485</v>
       </c>
       <c r="O4" t="n">
-        <v>585.6247760558463</v>
+        <v>585.6247760558459</v>
       </c>
       <c r="P4" t="n">
-        <v>585.6247760558463</v>
+        <v>585.6247760558459</v>
       </c>
     </row>
   </sheetData>
@@ -26914,16 +26914,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>171.3897001674282</v>
+        <v>171.3897001674281</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>100.5865826164489</v>
+        <v>100.586582616449</v>
       </c>
       <c r="H2" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26932,16 +26932,16 @@
         <v>0.4082420237969586</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>100.5865826164488</v>
+        <v>100.586582616449</v>
       </c>
       <c r="M2" t="n">
-        <v>78.80335741255519</v>
+        <v>78.80335741255516</v>
       </c>
       <c r="N2" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>152.4646244791964</v>
+        <v>152.4646244791961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>294.0896221709038</v>
+        <v>294.0896221709043</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>584.2572368089491</v>
+        <v>584.2572368089488</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1.367539246897763</v>
+        <v>1.367539246897422</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,16 +27151,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>171.3897001674282</v>
+        <v>171.3897001674281</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>100.5865826164489</v>
+        <v>100.586582616449</v>
       </c>
       <c r="M2" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0.4082420237969586</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>294.0896221709038</v>
+        <v>294.0896221709043</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>171.3897001674282</v>
+        <v>171.3897001674281</v>
       </c>
       <c r="C11" t="n">
-        <v>171.3897001674282</v>
+        <v>171.3897001674281</v>
       </c>
       <c r="D11" t="n">
-        <v>171.3897001674282</v>
+        <v>171.3897001674281</v>
       </c>
       <c r="E11" t="n">
-        <v>171.3897001674282</v>
+        <v>171.3897001674281</v>
       </c>
       <c r="F11" t="n">
-        <v>171.3897001674282</v>
+        <v>171.3897001674281</v>
       </c>
       <c r="G11" t="n">
-        <v>171.3897001674282</v>
+        <v>171.3897001674281</v>
       </c>
       <c r="H11" t="n">
-        <v>171.3897001674282</v>
+        <v>171.3897001674281</v>
       </c>
       <c r="I11" t="n">
         <v>147.4593084706921</v>
@@ -28135,28 +28135,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>51.23037211170288</v>
+        <v>51.23037211170296</v>
       </c>
       <c r="S11" t="n">
-        <v>171.3897001674282</v>
+        <v>171.3897001674281</v>
       </c>
       <c r="T11" t="n">
-        <v>171.3897001674282</v>
+        <v>171.3897001674281</v>
       </c>
       <c r="U11" t="n">
-        <v>171.3897001674282</v>
+        <v>171.3897001674281</v>
       </c>
       <c r="V11" t="n">
-        <v>171.3897001674282</v>
+        <v>171.3897001674281</v>
       </c>
       <c r="W11" t="n">
-        <v>171.3897001674282</v>
+        <v>171.3897001674281</v>
       </c>
       <c r="X11" t="n">
-        <v>171.3897001674282</v>
+        <v>171.3897001674281</v>
       </c>
       <c r="Y11" t="n">
-        <v>171.3897001674282</v>
+        <v>171.3897001674281</v>
       </c>
     </row>
     <row r="12">
@@ -28166,16 +28166,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>133.3468600696244</v>
@@ -28184,10 +28184,10 @@
         <v>127.1132721997666</v>
       </c>
       <c r="H12" t="n">
-        <v>95.77124205704072</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>56.40745017229534</v>
+        <v>56.40745017229536</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,19 +28214,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>38.82520712046116</v>
+        <v>38.8252071204612</v>
       </c>
       <c r="S12" t="n">
         <v>145.180098865789</v>
       </c>
       <c r="T12" t="n">
-        <v>87.14246862558998</v>
+        <v>171.3897001674281</v>
       </c>
       <c r="U12" t="n">
-        <v>171.3897001674282</v>
+        <v>171.3897001674281</v>
       </c>
       <c r="V12" t="n">
-        <v>171.3897001674282</v>
+        <v>136.7067426451398</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -28235,7 +28235,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>171.3897001674281</v>
       </c>
     </row>
     <row r="13">
@@ -28245,7 +28245,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>171.3897001674281</v>
       </c>
       <c r="C13" t="n">
         <v>167.9198098429365</v>
@@ -28260,16 +28260,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G13" t="n">
-        <v>166.9556149377512</v>
+        <v>91.5656620450154</v>
       </c>
       <c r="H13" t="n">
-        <v>155.3344859367049</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>134.4929323504436</v>
+        <v>134.4929323504437</v>
       </c>
       <c r="J13" t="n">
-        <v>40.01867628890817</v>
+        <v>40.01867628890821</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -28290,31 +28290,31 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.12980963648919</v>
+        <v>15.12980963648924</v>
       </c>
       <c r="R13" t="n">
         <v>135.6644318885835</v>
       </c>
       <c r="S13" t="n">
-        <v>171.3897001674282</v>
+        <v>171.3897001674281</v>
       </c>
       <c r="T13" t="n">
-        <v>171.3897001674282</v>
+        <v>171.3897001674281</v>
       </c>
       <c r="U13" t="n">
-        <v>171.3897001674282</v>
+        <v>171.3897001674281</v>
       </c>
       <c r="V13" t="n">
-        <v>171.3897001674282</v>
+        <v>171.3897001674281</v>
       </c>
       <c r="W13" t="n">
-        <v>171.3897001674282</v>
+        <v>171.3897001674281</v>
       </c>
       <c r="X13" t="n">
-        <v>112.0549615054147</v>
+        <v>171.3897001674281</v>
       </c>
       <c r="Y13" t="n">
-        <v>171.3897001674282</v>
+        <v>171.3897001674281</v>
       </c>
     </row>
     <row r="14">
@@ -28403,19 +28403,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>78.07053504780517</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>127.1132721997666</v>
@@ -28460,16 +28460,16 @@
         <v>171.3897001674282</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>171.3897001674282</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>171.3897001674282</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>171.3897001674282</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>160.7179088437453</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -28482,7 +28482,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>171.3897001674282</v>
+        <v>91.62110976246763</v>
       </c>
       <c r="C16" t="n">
         <v>167.9198098429365</v>
@@ -28494,7 +28494,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.9556149377512</v>
@@ -28542,10 +28542,10 @@
         <v>171.3897001674282</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>171.3897001674282</v>
       </c>
       <c r="W16" t="n">
-        <v>112.0549615054152</v>
+        <v>171.3897001674282</v>
       </c>
       <c r="X16" t="n">
         <v>171.3897001674282</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838772</v>
       </c>
       <c r="C17" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838772</v>
       </c>
       <c r="D17" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838772</v>
       </c>
       <c r="E17" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838772</v>
       </c>
       <c r="F17" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838772</v>
       </c>
       <c r="G17" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838772</v>
       </c>
       <c r="H17" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838772</v>
       </c>
       <c r="I17" t="n">
         <v>147.4593084706921</v>
@@ -28621,16 +28621,16 @@
         <v>252.2874490740672</v>
       </c>
       <c r="V17" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838772</v>
       </c>
       <c r="W17" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838772</v>
       </c>
       <c r="X17" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838772</v>
       </c>
       <c r="Y17" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838772</v>
       </c>
     </row>
     <row r="18">
@@ -28688,7 +28688,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>38.8252071204612</v>
       </c>
       <c r="S18" t="n">
         <v>145.180098865789</v>
@@ -28703,10 +28703,10 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W18" t="n">
-        <v>238.9027100790231</v>
+        <v>218.400360623995</v>
       </c>
       <c r="X18" t="n">
-        <v>18.32285766543302</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -28719,22 +28719,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.9556149377512</v>
       </c>
       <c r="H19" t="n">
         <v>155.3344859367049</v>
@@ -28764,10 +28764,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>15.12980963648924</v>
       </c>
       <c r="R19" t="n">
-        <v>58.49880978329323</v>
+        <v>135.6644318885835</v>
       </c>
       <c r="S19" t="n">
         <v>206.7812766895851</v>
@@ -28776,19 +28776,19 @@
         <v>229.6724362179661</v>
       </c>
       <c r="U19" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838772</v>
       </c>
       <c r="V19" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W19" t="n">
-        <v>271.9762827838771</v>
+        <v>264.356260041268</v>
       </c>
       <c r="X19" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y19" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>271.9762827838773</v>
+        <v>271.9762827838772</v>
       </c>
       <c r="C20" t="n">
-        <v>271.9762827838773</v>
+        <v>271.9762827838772</v>
       </c>
       <c r="D20" t="n">
-        <v>271.9762827838773</v>
+        <v>271.9762827838772</v>
       </c>
       <c r="E20" t="n">
-        <v>271.9762827838773</v>
+        <v>271.9762827838772</v>
       </c>
       <c r="F20" t="n">
-        <v>271.9762827838773</v>
+        <v>271.9762827838772</v>
       </c>
       <c r="G20" t="n">
-        <v>271.9762827838773</v>
+        <v>271.9762827838772</v>
       </c>
       <c r="H20" t="n">
-        <v>271.9762827838773</v>
+        <v>271.9762827838772</v>
       </c>
       <c r="I20" t="n">
         <v>147.4593084706921</v>
@@ -28858,16 +28858,16 @@
         <v>252.2874490740672</v>
       </c>
       <c r="V20" t="n">
-        <v>271.9762827838773</v>
+        <v>271.9762827838772</v>
       </c>
       <c r="W20" t="n">
-        <v>271.9762827838773</v>
+        <v>271.9762827838772</v>
       </c>
       <c r="X20" t="n">
-        <v>271.9762827838773</v>
+        <v>271.9762827838772</v>
       </c>
       <c r="Y20" t="n">
-        <v>271.9762827838773</v>
+        <v>271.9762827838772</v>
       </c>
     </row>
     <row r="21">
@@ -28892,13 +28892,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>127.1132721997666</v>
+        <v>106.6109227447385</v>
       </c>
       <c r="H21" t="n">
         <v>95.77124205704072</v>
       </c>
       <c r="I21" t="n">
-        <v>35.90510071726729</v>
+        <v>56.40745017229536</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28956,22 +28956,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D22" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F22" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.9556149377512</v>
+        <v>151.4967630206184</v>
       </c>
       <c r="H22" t="n">
         <v>155.3344859367049</v>
@@ -29001,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>15.12980963648924</v>
       </c>
       <c r="R22" t="n">
         <v>135.6644318885835</v>
@@ -29013,16 +29013,16 @@
         <v>229.6724362179661</v>
       </c>
       <c r="U22" t="n">
-        <v>88.59469755816284</v>
+        <v>271.9762827838772</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>271.9762827838772</v>
       </c>
       <c r="X22" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>219.8148072196457</v>
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>271.9762827838773</v>
+        <v>271.9762827838772</v>
       </c>
       <c r="C23" t="n">
-        <v>271.9762827838773</v>
+        <v>271.9762827838772</v>
       </c>
       <c r="D23" t="n">
-        <v>271.9762827838773</v>
+        <v>271.9762827838772</v>
       </c>
       <c r="E23" t="n">
-        <v>271.9762827838773</v>
+        <v>271.9762827838772</v>
       </c>
       <c r="F23" t="n">
-        <v>271.9762827838773</v>
+        <v>271.9762827838772</v>
       </c>
       <c r="G23" t="n">
-        <v>271.9762827838773</v>
+        <v>271.9762827838772</v>
       </c>
       <c r="H23" t="n">
-        <v>271.9762827838773</v>
+        <v>271.9762827838772</v>
       </c>
       <c r="I23" t="n">
         <v>147.4593084706921</v>
@@ -29083,7 +29083,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>51.23037211170296</v>
+        <v>51.23037211170297</v>
       </c>
       <c r="S23" t="n">
         <v>171.3897001674282</v>
@@ -29095,16 +29095,16 @@
         <v>252.2874490740672</v>
       </c>
       <c r="V23" t="n">
-        <v>271.9762827838773</v>
+        <v>271.9762827838772</v>
       </c>
       <c r="W23" t="n">
-        <v>271.9762827838773</v>
+        <v>271.9762827838772</v>
       </c>
       <c r="X23" t="n">
-        <v>271.9762827838773</v>
+        <v>271.9762827838772</v>
       </c>
       <c r="Y23" t="n">
-        <v>271.9762827838773</v>
+        <v>271.9762827838772</v>
       </c>
     </row>
     <row r="24">
@@ -29114,7 +29114,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>157.8252483534483</v>
+        <v>84.3588196606413</v>
       </c>
       <c r="C24" t="n">
         <v>160.0866360314548</v>
@@ -29135,7 +29135,7 @@
         <v>95.77124205704072</v>
       </c>
       <c r="I24" t="n">
-        <v>56.40745017229536</v>
+        <v>56.40745017229537</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29162,13 +29162,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>38.82520712046122</v>
       </c>
       <c r="S24" t="n">
         <v>145.180098865789</v>
       </c>
       <c r="T24" t="n">
-        <v>150.835191696005</v>
+        <v>185.4764132683503</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -29196,16 +29196,16 @@
         <v>181.719814997536</v>
       </c>
       <c r="C25" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.9556149377512</v>
@@ -29214,10 +29214,10 @@
         <v>155.3344859367049</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>134.4929323504437</v>
       </c>
       <c r="J25" t="n">
-        <v>40.01867628890821</v>
+        <v>40.01867628890822</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29238,25 +29238,25 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.12980963648924</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>135.6644318885835</v>
+        <v>135.6644318885836</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>206.7812766895851</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>229.6724362179661</v>
       </c>
       <c r="U25" t="n">
-        <v>264.7962230949239</v>
+        <v>271.9762827838772</v>
       </c>
       <c r="V25" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W25" t="n">
-        <v>271.9762827838773</v>
+        <v>179.3962199813505</v>
       </c>
       <c r="X25" t="n">
         <v>228.939939463578</v>
@@ -29296,16 +29296,16 @@
         <v>100.994824640246</v>
       </c>
       <c r="J26" t="n">
-        <v>40.87787536902009</v>
+        <v>100.994824640246</v>
       </c>
       <c r="K26" t="n">
         <v>100.994824640246</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>40.87787536901914</v>
       </c>
       <c r="M26" t="n">
-        <v>100.994824640246</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>100.994824640246</v>
@@ -29533,10 +29533,10 @@
         <v>100.994824640246</v>
       </c>
       <c r="J29" t="n">
-        <v>40.87787536901791</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>100.994824640246</v>
       </c>
       <c r="L29" t="n">
         <v>100.994824640246</v>
@@ -29545,7 +29545,7 @@
         <v>100.994824640246</v>
       </c>
       <c r="N29" t="n">
-        <v>100.994824640246</v>
+        <v>40.87787536901885</v>
       </c>
       <c r="O29" t="n">
         <v>100.994824640246</v>
@@ -29700,7 +29700,7 @@
         <v>100.994824640246</v>
       </c>
       <c r="M31" t="n">
-        <v>100.994824640246</v>
+        <v>100.9948246402452</v>
       </c>
       <c r="N31" t="n">
         <v>100.994824640246</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="C32" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="D32" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="E32" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="F32" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="G32" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="H32" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="I32" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="J32" t="n">
-        <v>100.9948246402459</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>100.994824640246</v>
       </c>
       <c r="L32" t="n">
-        <v>40.87787536901925</v>
+        <v>100.994824640246</v>
       </c>
       <c r="M32" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="N32" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="O32" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="P32" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="Q32" t="n">
-        <v>100.9948246402459</v>
+        <v>90.64232789756198</v>
       </c>
       <c r="R32" t="n">
-        <v>100.9948246402459</v>
+        <v>51.23037211170296</v>
       </c>
       <c r="S32" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="T32" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="U32" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="V32" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="W32" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="X32" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="Y32" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="C34" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="D34" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="E34" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="F34" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="G34" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="H34" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="I34" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="J34" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="K34" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="L34" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="M34" t="n">
-        <v>100.9948246402472</v>
+        <v>100.994824640246</v>
       </c>
       <c r="N34" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="O34" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="P34" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="Q34" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="R34" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="S34" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="T34" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="U34" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="V34" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="W34" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="X34" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="Y34" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528012</v>
       </c>
       <c r="C35" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528012</v>
       </c>
       <c r="D35" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528012</v>
       </c>
       <c r="E35" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528012</v>
       </c>
       <c r="F35" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528012</v>
       </c>
       <c r="G35" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528012</v>
       </c>
       <c r="H35" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528012</v>
       </c>
       <c r="I35" t="n">
         <v>147.4593084706921</v>
@@ -30037,22 +30037,22 @@
         <v>171.3897001674282</v>
       </c>
       <c r="T35" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528012</v>
       </c>
       <c r="U35" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528012</v>
       </c>
       <c r="V35" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528012</v>
       </c>
       <c r="W35" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528012</v>
       </c>
       <c r="X35" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528012</v>
       </c>
       <c r="Y35" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528012</v>
       </c>
     </row>
     <row r="36">
@@ -30071,10 +30071,10 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>50.14464097186421</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -30116,10 +30116,10 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>179.798182052801</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>3.693318988686087</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528012</v>
       </c>
       <c r="C37" t="n">
         <v>167.9198098429365</v>
@@ -30186,31 +30186,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>15.12980963648924</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>135.6644318885835</v>
       </c>
       <c r="S37" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528012</v>
       </c>
       <c r="T37" t="n">
-        <v>61.60407019317844</v>
+        <v>179.7981820528012</v>
       </c>
       <c r="U37" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528012</v>
       </c>
       <c r="V37" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528012</v>
       </c>
       <c r="W37" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528012</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>76.73387982966662</v>
       </c>
       <c r="Y37" t="n">
-        <v>179.798182052801</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>179.7981820528011</v>
+        <v>179.7981820528012</v>
       </c>
       <c r="C38" t="n">
-        <v>179.7981820528011</v>
+        <v>179.7981820528012</v>
       </c>
       <c r="D38" t="n">
-        <v>179.7981820528011</v>
+        <v>179.7981820528012</v>
       </c>
       <c r="E38" t="n">
-        <v>179.7981820528011</v>
+        <v>179.7981820528012</v>
       </c>
       <c r="F38" t="n">
-        <v>179.7981820528011</v>
+        <v>179.7981820528012</v>
       </c>
       <c r="G38" t="n">
-        <v>179.7981820528011</v>
+        <v>179.7981820528012</v>
       </c>
       <c r="H38" t="n">
-        <v>179.7981820528011</v>
+        <v>179.7981820528012</v>
       </c>
       <c r="I38" t="n">
         <v>147.4593084706921</v>
@@ -30274,22 +30274,22 @@
         <v>171.3897001674282</v>
       </c>
       <c r="T38" t="n">
-        <v>179.7981820528011</v>
+        <v>179.7981820528012</v>
       </c>
       <c r="U38" t="n">
-        <v>179.7981820528011</v>
+        <v>179.7981820528012</v>
       </c>
       <c r="V38" t="n">
-        <v>179.7981820528011</v>
+        <v>179.7981820528012</v>
       </c>
       <c r="W38" t="n">
-        <v>179.7981820528011</v>
+        <v>179.7981820528012</v>
       </c>
       <c r="X38" t="n">
-        <v>179.7981820528011</v>
+        <v>179.7981820528012</v>
       </c>
       <c r="Y38" t="n">
-        <v>179.7981820528011</v>
+        <v>179.7981820528012</v>
       </c>
     </row>
     <row r="39">
@@ -30347,16 +30347,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>38.8252071204612</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>145.180098865789</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>38.31140217569828</v>
       </c>
       <c r="U39" t="n">
-        <v>144.6662939210258</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -30378,7 +30378,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.7981820528011</v>
+        <v>179.7981820528012</v>
       </c>
       <c r="C40" t="n">
         <v>167.9198098429365</v>
@@ -30390,7 +30390,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.9556149377512</v>
@@ -30423,31 +30423,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>15.12980963648924</v>
       </c>
       <c r="R40" t="n">
         <v>135.6644318885835</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>179.7981820528012</v>
       </c>
       <c r="T40" t="n">
-        <v>179.7981820528011</v>
+        <v>179.7981820528012</v>
       </c>
       <c r="U40" t="n">
-        <v>76.73387982966696</v>
+        <v>179.7981820528012</v>
       </c>
       <c r="V40" t="n">
-        <v>179.7981820528011</v>
+        <v>179.7981820528012</v>
       </c>
       <c r="W40" t="n">
-        <v>179.7981820528011</v>
+        <v>179.7981820528012</v>
       </c>
       <c r="X40" t="n">
-        <v>179.7981820528011</v>
+        <v>32.7617365648569</v>
       </c>
       <c r="Y40" t="n">
-        <v>179.7981820528011</v>
+        <v>179.7981820528012</v>
       </c>
     </row>
     <row r="41">
@@ -30551,10 +30551,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>26.00566250279124</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>95.77124205704072</v>
       </c>
       <c r="I42" t="n">
         <v>56.40745017229536</v>
@@ -30593,7 +30593,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>121.7769045598306</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -30615,7 +30615,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.3899400290042</v>
+        <v>50.74924036792493</v>
       </c>
       <c r="C43" t="n">
         <v>167.9198098429365</v>
@@ -30627,7 +30627,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F43" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.9556149377512</v>
@@ -30660,7 +30660,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>15.12980963648924</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>135.6644318885835</v>
@@ -30678,13 +30678,13 @@
         <v>179.3899400290042</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>179.3899400290042</v>
       </c>
       <c r="X43" t="n">
         <v>179.3899400290042</v>
       </c>
       <c r="Y43" t="n">
-        <v>64.05352233595943</v>
+        <v>179.3899400290042</v>
       </c>
     </row>
     <row r="44">
@@ -30788,10 +30788,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>82.41311267508658</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>95.77124205704072</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -30821,13 +30821,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>38.8252071204612</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>139.3591476116653</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -30852,10 +30852,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.3899400290042</v>
+        <v>67.71320178638101</v>
       </c>
       <c r="C46" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>151.5411742405149</v>
@@ -30897,7 +30897,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.12980963648924</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>135.6644318885835</v>
@@ -30906,10 +30906,10 @@
         <v>179.3899400290042</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>179.3899400290042</v>
       </c>
       <c r="U46" t="n">
-        <v>64.05352233595951</v>
+        <v>179.3899400290042</v>
       </c>
       <c r="V46" t="n">
         <v>179.3899400290042</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6129231134842063</v>
+        <v>0.612923113484205</v>
       </c>
       <c r="H11" t="n">
-        <v>6.277098835970129</v>
+        <v>6.277098835970117</v>
       </c>
       <c r="I11" t="n">
-        <v>23.62971833259989</v>
+        <v>23.62971833259984</v>
       </c>
       <c r="J11" t="n">
-        <v>52.0210831030802</v>
+        <v>52.02108310308009</v>
       </c>
       <c r="K11" t="n">
-        <v>77.96611849686667</v>
+        <v>77.96611849686651</v>
       </c>
       <c r="L11" t="n">
-        <v>96.72386423115897</v>
+        <v>96.72386423115877</v>
       </c>
       <c r="M11" t="n">
-        <v>107.6239356505837</v>
+        <v>107.6239356505835</v>
       </c>
       <c r="N11" t="n">
-        <v>109.3654034467707</v>
+        <v>109.3654034467705</v>
       </c>
       <c r="O11" t="n">
-        <v>103.2706492370621</v>
+        <v>103.2706492370619</v>
       </c>
       <c r="P11" t="n">
-        <v>88.13910987292078</v>
+        <v>88.13910987292061</v>
       </c>
       <c r="Q11" t="n">
-        <v>66.18880087126763</v>
+        <v>66.18880087126749</v>
       </c>
       <c r="R11" t="n">
-        <v>38.50153152740231</v>
+        <v>38.50153152740223</v>
       </c>
       <c r="S11" t="n">
-        <v>13.96698544852137</v>
+        <v>13.96698544852134</v>
       </c>
       <c r="T11" t="n">
-        <v>2.683070929277114</v>
+        <v>2.683070929277109</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04903384907873649</v>
+        <v>0.04903384907873639</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3279427771816678</v>
+        <v>0.3279427771816671</v>
       </c>
       <c r="H12" t="n">
-        <v>3.167236821728213</v>
+        <v>3.167236821728207</v>
       </c>
       <c r="I12" t="n">
-        <v>11.29101228454427</v>
+        <v>11.29101228454424</v>
       </c>
       <c r="J12" t="n">
-        <v>30.98340071609784</v>
+        <v>30.98340071609778</v>
       </c>
       <c r="K12" t="n">
-        <v>52.95556678726958</v>
+        <v>52.95556678726947</v>
       </c>
       <c r="L12" t="n">
-        <v>71.2052946683266</v>
+        <v>71.20529466832646</v>
       </c>
       <c r="M12" t="n">
-        <v>83.09322034116204</v>
+        <v>83.09322034116187</v>
       </c>
       <c r="N12" t="n">
-        <v>85.29245063199878</v>
+        <v>85.29245063199859</v>
       </c>
       <c r="O12" t="n">
-        <v>78.02592909549971</v>
+        <v>78.02592909549955</v>
       </c>
       <c r="P12" t="n">
-        <v>62.62268698655901</v>
+        <v>62.62268698655888</v>
       </c>
       <c r="Q12" t="n">
-        <v>41.86160783813711</v>
+        <v>41.86160783813702</v>
       </c>
       <c r="R12" t="n">
-        <v>20.36121909554251</v>
+        <v>20.36121909554246</v>
       </c>
       <c r="S12" t="n">
-        <v>6.09139325159808</v>
+        <v>6.091393251598068</v>
       </c>
       <c r="T12" t="n">
-        <v>1.321839527324354</v>
+        <v>1.321839527324351</v>
       </c>
       <c r="U12" t="n">
-        <v>0.02157518270932026</v>
+        <v>0.02157518270932022</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2749362080772395</v>
+        <v>0.2749362080772388</v>
       </c>
       <c r="H13" t="n">
-        <v>2.444432831814003</v>
+        <v>2.444432831813999</v>
       </c>
       <c r="I13" t="n">
-        <v>8.268081602904621</v>
+        <v>8.268081602904605</v>
       </c>
       <c r="J13" t="n">
-        <v>19.43798991106083</v>
+        <v>19.43798991106079</v>
       </c>
       <c r="K13" t="n">
-        <v>31.94258853842836</v>
+        <v>31.94258853842829</v>
       </c>
       <c r="L13" t="n">
-        <v>40.87551588086522</v>
+        <v>40.87551588086514</v>
       </c>
       <c r="M13" t="n">
-        <v>43.09750032614399</v>
+        <v>43.0975003261439</v>
       </c>
       <c r="N13" t="n">
-        <v>42.07273809603795</v>
+        <v>42.07273809603787</v>
       </c>
       <c r="O13" t="n">
-        <v>38.8609833016811</v>
+        <v>38.86098330168102</v>
       </c>
       <c r="P13" t="n">
-        <v>33.25228465690538</v>
+        <v>33.25228465690531</v>
       </c>
       <c r="Q13" t="n">
-        <v>23.02215829635866</v>
+        <v>23.02215829635861</v>
       </c>
       <c r="R13" t="n">
-        <v>12.36213168318205</v>
+        <v>12.36213168318203</v>
       </c>
       <c r="S13" t="n">
-        <v>4.791388280764253</v>
+        <v>4.791388280764243</v>
       </c>
       <c r="T13" t="n">
-        <v>1.174727434511841</v>
+        <v>1.174727434511839</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01499652044057671</v>
+        <v>0.01499652044057668</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32698,22 +32698,22 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.612923113484205</v>
+        <v>0.6129231134842048</v>
       </c>
       <c r="H23" t="n">
-        <v>6.277098835970117</v>
+        <v>6.277098835970114</v>
       </c>
       <c r="I23" t="n">
-        <v>23.62971833259984</v>
+        <v>23.62971833259983</v>
       </c>
       <c r="J23" t="n">
-        <v>52.02108310308009</v>
+        <v>52.02108310308007</v>
       </c>
       <c r="K23" t="n">
-        <v>77.96611849686651</v>
+        <v>77.96611849686649</v>
       </c>
       <c r="L23" t="n">
-        <v>96.72386423115877</v>
+        <v>96.72386423115873</v>
       </c>
       <c r="M23" t="n">
         <v>107.6239356505835</v>
@@ -32725,22 +32725,22 @@
         <v>103.2706492370619</v>
       </c>
       <c r="P23" t="n">
-        <v>88.13910987292061</v>
+        <v>88.13910987292057</v>
       </c>
       <c r="Q23" t="n">
-        <v>66.18880087126749</v>
+        <v>66.18880087126747</v>
       </c>
       <c r="R23" t="n">
-        <v>38.50153152740223</v>
+        <v>38.50153152740221</v>
       </c>
       <c r="S23" t="n">
-        <v>13.96698544852134</v>
+        <v>13.96698544852133</v>
       </c>
       <c r="T23" t="n">
-        <v>2.683070929277109</v>
+        <v>2.683070929277108</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04903384907873639</v>
+        <v>0.04903384907873638</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3279427771816671</v>
+        <v>0.327942777181667</v>
       </c>
       <c r="H24" t="n">
-        <v>3.167236821728207</v>
+        <v>3.167236821728205</v>
       </c>
       <c r="I24" t="n">
         <v>11.29101228454424</v>
       </c>
       <c r="J24" t="n">
-        <v>30.98340071609778</v>
+        <v>30.98340071609776</v>
       </c>
       <c r="K24" t="n">
-        <v>52.95556678726947</v>
+        <v>52.95556678726945</v>
       </c>
       <c r="L24" t="n">
-        <v>71.20529466832646</v>
+        <v>71.20529466832643</v>
       </c>
       <c r="M24" t="n">
-        <v>83.09322034116187</v>
+        <v>83.09322034116184</v>
       </c>
       <c r="N24" t="n">
-        <v>85.29245063199859</v>
+        <v>85.29245063199856</v>
       </c>
       <c r="O24" t="n">
-        <v>78.02592909549955</v>
+        <v>78.02592909549952</v>
       </c>
       <c r="P24" t="n">
-        <v>62.62268698655888</v>
+        <v>62.62268698655885</v>
       </c>
       <c r="Q24" t="n">
-        <v>41.86160783813702</v>
+        <v>41.861607838137</v>
       </c>
       <c r="R24" t="n">
         <v>20.36121909554246</v>
       </c>
       <c r="S24" t="n">
-        <v>6.091393251598068</v>
+        <v>6.091393251598065</v>
       </c>
       <c r="T24" t="n">
-        <v>1.321839527324351</v>
+        <v>1.32183952732435</v>
       </c>
       <c r="U24" t="n">
-        <v>0.02157518270932022</v>
+        <v>0.02157518270932021</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,43 +32859,43 @@
         <v>0.2749362080772388</v>
       </c>
       <c r="H25" t="n">
-        <v>2.444432831813999</v>
+        <v>2.444432831813997</v>
       </c>
       <c r="I25" t="n">
-        <v>8.268081602904605</v>
+        <v>8.268081602904601</v>
       </c>
       <c r="J25" t="n">
-        <v>19.43798991106079</v>
+        <v>19.43798991106078</v>
       </c>
       <c r="K25" t="n">
-        <v>31.94258853842829</v>
+        <v>31.94258853842828</v>
       </c>
       <c r="L25" t="n">
-        <v>40.87551588086514</v>
+        <v>40.87551588086512</v>
       </c>
       <c r="M25" t="n">
-        <v>43.0975003261439</v>
+        <v>43.09750032614389</v>
       </c>
       <c r="N25" t="n">
-        <v>42.07273809603787</v>
+        <v>42.07273809603785</v>
       </c>
       <c r="O25" t="n">
-        <v>38.86098330168102</v>
+        <v>38.860983301681</v>
       </c>
       <c r="P25" t="n">
-        <v>33.25228465690531</v>
+        <v>33.2522846569053</v>
       </c>
       <c r="Q25" t="n">
-        <v>23.02215829635861</v>
+        <v>23.0221582963586</v>
       </c>
       <c r="R25" t="n">
-        <v>12.36213168318203</v>
+        <v>12.36213168318202</v>
       </c>
       <c r="S25" t="n">
-        <v>4.791388280764243</v>
+        <v>4.791388280764242</v>
       </c>
       <c r="T25" t="n">
-        <v>1.174727434511839</v>
+        <v>1.174727434511838</v>
       </c>
       <c r="U25" t="n">
         <v>0.01499652044057668</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>124.7468853988435</v>
+        <v>124.7468853988434</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>294.0896221709043</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>294.0896221709043</v>
       </c>
       <c r="M11" t="n">
-        <v>289.9750342602085</v>
+        <v>289.9750342602097</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>294.0896221709038</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>294.0896221709038</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>161.5749157061535</v>
+        <v>161.5749157061533</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35492,19 +35492,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>282.2072131943017</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>294.0896221709038</v>
+        <v>294.0896221709043</v>
       </c>
       <c r="N12" t="n">
-        <v>294.0896221709038</v>
+        <v>294.0896221709043</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>294.0896221709043</v>
       </c>
       <c r="P12" t="n">
-        <v>294.0896221709038</v>
+        <v>282.207213194302</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35568,22 +35568,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>65.88621252291665</v>
+        <v>65.88621252291659</v>
       </c>
       <c r="L13" t="n">
-        <v>142.4988284063799</v>
+        <v>142.4988284063798</v>
       </c>
       <c r="M13" t="n">
-        <v>162.2828600509942</v>
+        <v>162.2828600509941</v>
       </c>
       <c r="N13" t="n">
-        <v>161.6912651158363</v>
+        <v>161.6912651158362</v>
       </c>
       <c r="O13" t="n">
-        <v>138.319212085206</v>
+        <v>138.3192120852059</v>
       </c>
       <c r="P13" t="n">
-        <v>96.85681367522639</v>
+        <v>96.85681367522631</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35650,22 +35650,22 @@
         <v>294.0896221709038</v>
       </c>
       <c r="L14" t="n">
+        <v>289.9750342602087</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>294.0896221709038</v>
       </c>
-      <c r="M14" t="n">
-        <v>294.0896221709038</v>
-      </c>
-      <c r="N14" t="n">
-        <v>157.4603277954583</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>161.5749157061533</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>91.84617499196257</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>294.0896221709038</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>294.0896221709038</v>
       </c>
       <c r="N15" t="n">
-        <v>283.2237699233945</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>294.0896221709038</v>
       </c>
       <c r="P15" t="n">
-        <v>294.0896221709038</v>
+        <v>282.2072131943017</v>
       </c>
       <c r="Q15" t="n">
-        <v>201.2268904498484</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,7 +35884,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>282.2072131943017</v>
       </c>
       <c r="L17" t="n">
         <v>294.0896221709038</v>
@@ -35893,13 +35893,13 @@
         <v>294.0896221709038</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>294.0896221709038</v>
       </c>
       <c r="O17" t="n">
-        <v>282.2072131943017</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>294.0896221709038</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>91.84617499196257</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>284.764205736955</v>
+        <v>282.2072131943017</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>294.0896221709038</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>294.0896221709038</v>
       </c>
       <c r="O18" t="n">
-        <v>292.5491863573433</v>
+        <v>294.0896221709038</v>
       </c>
       <c r="P18" t="n">
-        <v>294.0896221709038</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>201.2268904498484</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36121,16 +36121,16 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>294.0896221709038</v>
+        <v>282.2072131943017</v>
       </c>
       <c r="L20" t="n">
         <v>294.0896221709038</v>
       </c>
       <c r="M20" t="n">
-        <v>282.2072131943017</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>294.0896221709038</v>
       </c>
       <c r="O20" t="n">
         <v>294.0896221709038</v>
@@ -36206,7 +36206,7 @@
         <v>294.0896221709038</v>
       </c>
       <c r="M21" t="n">
-        <v>90.30573917840204</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36215,10 +36215,10 @@
         <v>294.0896221709038</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>291.5326296282504</v>
       </c>
       <c r="Q21" t="n">
-        <v>201.2268904498484</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36358,25 +36358,25 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>294.0896221709036</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>294.0896221709036</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>120.632297488148</v>
+        <v>282.2072131943017</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>294.0896221709038</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>294.0896221709038</v>
       </c>
       <c r="P23" t="n">
-        <v>294.0896221709036</v>
+        <v>294.0896221709038</v>
       </c>
       <c r="Q23" t="n">
-        <v>161.5749157061533</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>91.84617499196257</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>294.0896221709036</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>294.0896221709036</v>
+        <v>80.9803227444534</v>
       </c>
       <c r="N24" t="n">
-        <v>283.223769923394</v>
+        <v>294.0896221709038</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>294.0896221709038</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>294.0896221709038</v>
       </c>
       <c r="Q24" t="n">
-        <v>201.2268904498484</v>
+        <v>201.2268904498483</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>65.88621252291659</v>
+        <v>65.88621252291658</v>
       </c>
       <c r="L25" t="n">
         <v>142.4988284063798</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>165.6247607678634</v>
+        <v>225.7417100390894</v>
       </c>
       <c r="K26" t="n">
         <v>421.5269755055799</v>
       </c>
       <c r="L26" t="n">
-        <v>448.1232309836297</v>
+        <v>489.0011063526488</v>
       </c>
       <c r="M26" t="n">
-        <v>605.8300393343526</v>
+        <v>504.8352146941066</v>
       </c>
       <c r="N26" t="n">
         <v>592.5131156503656</v>
@@ -36616,7 +36616,7 @@
         <v>262.5697403463993</v>
       </c>
       <c r="R26" t="n">
-        <v>49.76445252854301</v>
+        <v>49.76445252854302</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>43.21153340243758</v>
       </c>
       <c r="L27" t="n">
         <v>440.7223099916756</v>
@@ -36692,7 +36692,7 @@
         <v>367.7700801943338</v>
       </c>
       <c r="Q27" t="n">
-        <v>43.21153340243755</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>60.97614835133776</v>
+        <v>60.97614835133777</v>
       </c>
       <c r="K28" t="n">
         <v>166.8810371631626</v>
@@ -36765,13 +36765,13 @@
         <v>262.6860897560822</v>
       </c>
       <c r="O28" t="n">
-        <v>239.3140367254519</v>
+        <v>239.314036725452</v>
       </c>
       <c r="P28" t="n">
         <v>197.8516383154723</v>
       </c>
       <c r="Q28" t="n">
-        <v>85.86501500375672</v>
+        <v>85.86501500375675</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,10 +36829,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>165.6247607678613</v>
+        <v>124.7468853988434</v>
       </c>
       <c r="K29" t="n">
-        <v>320.532150865334</v>
+        <v>421.52697550558</v>
       </c>
       <c r="L29" t="n">
         <v>549.1180556238758</v>
@@ -36841,7 +36841,7 @@
         <v>605.8300393343527</v>
       </c>
       <c r="N29" t="n">
-        <v>592.5131156503658</v>
+        <v>532.3961663791385</v>
       </c>
       <c r="O29" t="n">
         <v>512.3509127387564</v>
@@ -36853,7 +36853,7 @@
         <v>262.5697403463994</v>
       </c>
       <c r="R29" t="n">
-        <v>49.76445252854304</v>
+        <v>49.76445252854305</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>91.84617499196257</v>
       </c>
       <c r="K30" t="n">
         <v>284.764205736955</v>
@@ -36920,16 +36920,16 @@
         <v>573.0259006545219</v>
       </c>
       <c r="N30" t="n">
-        <v>601.7223962109098</v>
+        <v>67.09665843458093</v>
       </c>
       <c r="O30" t="n">
-        <v>232.6348232096188</v>
+        <v>474.1874955441368</v>
       </c>
       <c r="P30" t="n">
         <v>367.7700801943339</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>201.2268904498484</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>60.97614835133778</v>
+        <v>60.9761483513378</v>
       </c>
       <c r="K31" t="n">
         <v>166.8810371631626</v>
@@ -36996,10 +36996,10 @@
         <v>243.4936530466258</v>
       </c>
       <c r="M31" t="n">
-        <v>263.2776846912402</v>
+        <v>263.2776846912393</v>
       </c>
       <c r="N31" t="n">
-        <v>262.6860897560822</v>
+        <v>262.6860897560823</v>
       </c>
       <c r="O31" t="n">
         <v>239.314036725452</v>
@@ -37008,7 +37008,7 @@
         <v>197.8516383154723</v>
       </c>
       <c r="Q31" t="n">
-        <v>85.86501500375675</v>
+        <v>85.86501500375677</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>225.7417100390893</v>
+        <v>124.7468853988434</v>
       </c>
       <c r="K32" t="n">
-        <v>320.532150865334</v>
+        <v>421.52697550558</v>
       </c>
       <c r="L32" t="n">
-        <v>489.0011063526489</v>
+        <v>549.1180556238758</v>
       </c>
       <c r="M32" t="n">
-        <v>605.8300393343526</v>
+        <v>605.8300393343527</v>
       </c>
       <c r="N32" t="n">
-        <v>592.5131156503656</v>
+        <v>592.5131156503658</v>
       </c>
       <c r="O32" t="n">
-        <v>512.3509127387563</v>
+        <v>512.3509127387564</v>
       </c>
       <c r="P32" t="n">
-        <v>419.5954460849374</v>
+        <v>419.5954460849375</v>
       </c>
       <c r="Q32" t="n">
-        <v>262.5697403463993</v>
+        <v>252.2172436037153</v>
       </c>
       <c r="R32" t="n">
-        <v>49.76445252854297</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>43.21153340243695</v>
       </c>
       <c r="L33" t="n">
         <v>440.7223099916756</v>
@@ -37166,7 +37166,7 @@
         <v>367.7700801943339</v>
       </c>
       <c r="Q33" t="n">
-        <v>43.21153340243664</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>60.97614835133771</v>
+        <v>60.9761483513378</v>
       </c>
       <c r="K34" t="n">
-        <v>166.8810371631625</v>
+        <v>166.8810371631626</v>
       </c>
       <c r="L34" t="n">
-        <v>243.4936530466257</v>
+        <v>243.4936530466258</v>
       </c>
       <c r="M34" t="n">
-        <v>263.2776846912413</v>
+        <v>263.2776846912402</v>
       </c>
       <c r="N34" t="n">
-        <v>262.6860897560821</v>
+        <v>262.6860897560822</v>
       </c>
       <c r="O34" t="n">
-        <v>239.3140367254519</v>
+        <v>239.314036725452</v>
       </c>
       <c r="P34" t="n">
         <v>197.8516383154723</v>
       </c>
       <c r="Q34" t="n">
-        <v>85.86501500375668</v>
+        <v>85.86501500375677</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,10 +37303,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>124.7468853988434</v>
       </c>
       <c r="K35" t="n">
-        <v>296.0148537408926</v>
+        <v>320.532150865334</v>
       </c>
       <c r="L35" t="n">
         <v>448.1232309836297</v>
@@ -37321,10 +37321,10 @@
         <v>411.3560880985104</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>12.31073318286653</v>
       </c>
       <c r="Q35" t="n">
-        <v>161.5749157061533</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37388,13 +37388,13 @@
         <v>284.764205736955</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>440.7223099916756</v>
       </c>
       <c r="M36" t="n">
-        <v>573.0259006545219</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>320.6018466616537</v>
+        <v>452.9054373244983</v>
       </c>
       <c r="O36" t="n">
         <v>474.1874955441368</v>
@@ -37546,7 +37546,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>425.5374632798308</v>
+        <v>448.1232309836297</v>
       </c>
       <c r="M38" t="n">
         <v>504.8352146941066</v>
@@ -37561,7 +37561,7 @@
         <v>318.6006214446916</v>
       </c>
       <c r="Q38" t="n">
-        <v>161.5749157061533</v>
+        <v>138.9891480023545</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37628,10 +37628,10 @@
         <v>440.7223099916756</v>
       </c>
       <c r="M39" t="n">
-        <v>452.9054373245</v>
+        <v>573.0259006545219</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>81.10642711982646</v>
       </c>
       <c r="O39" t="n">
         <v>474.1874955441368</v>
@@ -37640,7 +37640,7 @@
         <v>367.7700801943339</v>
       </c>
       <c r="Q39" t="n">
-        <v>201.2268904498484</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37789,13 +37789,13 @@
         <v>504.8352146941066</v>
       </c>
       <c r="N41" t="n">
-        <v>491.5182910101197</v>
+        <v>29.06838991874737</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>411.3560880985104</v>
       </c>
       <c r="P41" t="n">
-        <v>267.506808451831</v>
+        <v>318.6006214446916</v>
       </c>
       <c r="Q41" t="n">
         <v>161.5749157061533</v>
@@ -37856,22 +37856,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>91.84617499196257</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>284.764205736955</v>
       </c>
       <c r="L42" t="n">
         <v>440.7223099916756</v>
       </c>
       <c r="M42" t="n">
-        <v>249.3059448741767</v>
+        <v>573.0259006545219</v>
       </c>
       <c r="N42" t="n">
-        <v>585.6247760558463</v>
+        <v>359.4819350907188</v>
       </c>
       <c r="O42" t="n">
-        <v>474.1874955441368</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>367.7700801943339</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>124.7468853988434</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>320.532150865334</v>
@@ -38023,10 +38023,10 @@
         <v>448.1232309836297</v>
       </c>
       <c r="M44" t="n">
-        <v>42.38531360273569</v>
+        <v>504.8352146941066</v>
       </c>
       <c r="N44" t="n">
-        <v>491.5182910101197</v>
+        <v>153.8152753175908</v>
       </c>
       <c r="O44" t="n">
         <v>411.3560880985104</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>91.84617499196257</v>
       </c>
       <c r="K45" t="n">
         <v>284.764205736955</v>
@@ -38102,19 +38102,19 @@
         <v>440.7223099916756</v>
       </c>
       <c r="M45" t="n">
-        <v>573.0259006545219</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>546.1375851827282</v>
+        <v>585.6247760558459</v>
       </c>
       <c r="O45" t="n">
-        <v>474.1874955441368</v>
+        <v>346.8830596893948</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>367.7700801943339</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>201.2268904498484</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
